--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>45856.56684027778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45856.57200231482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>46013.37362268518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45936.82814814815</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45609</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>45348</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>45275</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         <v>46055</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45698.48634259259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45930.60978009259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>45939.60743055555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44512.62668981482</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45930.6172337963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>45846.47335648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>45788.88578703703</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44992</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>46003.66630787037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>46055</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44530</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44602</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44974</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>45604.53402777778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45539</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>45898.45456018519</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>45373.44148148148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>45947</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>45982.56368055556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>45302</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44991</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45358.52763888889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>45790.83706018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>45679.98452546296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44278</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44536</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44347.63069444444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>44469</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45580.46207175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>45295.3942824074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>44840</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44404.71972222222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>45740.58743055556</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>45726.52925925926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>45587</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>45819.60131944445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45924.51141203703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45841.4303125</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44943</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>45846</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45616</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>45856.55965277777</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>45538.45523148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>45205</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>45846</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>45876.69954861111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>46049.58559027778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45302</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>46055.33665509259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44879</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>45758</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45343</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>45569.41550925926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>45783</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>44260</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>44306</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>44308</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>44328.35063657408</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>44239.33525462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>44496</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>44404.84280092592</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>44404.84659722223</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>44278.3859375</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>44575.80925925926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>44662</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>44487</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>44749.55703703704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>44749.55936342593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>44273.62572916667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>44308</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>44308</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44349</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44792.53711805555</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44411</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>44809</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>44442</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>44487.49392361111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>44749.32716435185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44487</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44420.68987268519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>44881.81052083334</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>44404.84138888889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>44266</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44665.60081018518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44869.49265046296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>44792</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>44259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44365</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44487</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44487</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44875.59231481481</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44272</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>44852.74376157407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44292</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44498.56373842592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44881.79847222222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44286.34827546297</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44538</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44673</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44298.46462962963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44298.46582175926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44278.38752314815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>44273</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>44279.37552083333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>44347.61920138889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44754.47359953704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44855.3080787037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44476</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44373.75251157407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44347.6287962963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44511</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44466.4425</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>44377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>44440.71997685185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>44840</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>44280</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>44613</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>44537</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>44456.46952546296</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44356</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>44360</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>44476</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44575</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>44298.44060185185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44711</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44659.57226851852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>44659</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>44454.4800925926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>44578</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>44474.25150462963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>44579.41064814815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>44557.71989583333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>44373</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>44616.39256944445</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44239</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>44239</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>44464.40523148148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44294</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>44575</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>44428.58511574074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44279.61517361111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44252</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44326</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44575.8194212963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>44428.596875</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>44819.28449074074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>44523.65311342593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44292</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         <v>44846.66688657407</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>44605.44909722222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>44628</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>44711</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12111,7 +12111,7 @@
         <v>44711</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12168,7 +12168,7 @@
         <v>44841.31997685185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44792.53936342592</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>44467.68283564815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12339,7 +12339,7 @@
         <v>44259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>44412</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44830.90146990741</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44787.80010416666</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44825.40940972222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44585.30171296297</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44579</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         <v>44428.34821759259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44272</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44308</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>44428</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44488</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44464.42415509259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44596</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44498.57181712963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44532.30398148148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44729</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44272</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44805</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45735.81920138889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>45477.38181712963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>44853</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>45252.58925925926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44750</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>45435.51875</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>45114.55280092593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>45764.30391203704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>45272.42149305555</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>44711</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>45617.4922337963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>44979</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>45469.43982638889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>45697.26537037037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>45169</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>45048</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>45605.84435185185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>45152</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>45747.73295138889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>45012</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>45404.58408564814</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>45111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>45642.60125</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44628</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44589.73825231481</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>45145.47684027778</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>45177</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45307.72520833334</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>45726.42344907407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>45012.47533564815</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44998</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>45621.52488425926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>45621.5278125</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>45436.68626157408</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>45405</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>45405</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>45092.42630787037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>45295.4037962963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>45621</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>45392.58569444445</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44943.44811342593</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>45645.57626157408</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>45757.29700231482</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44252</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>45456.66137731481</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44943</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44938.53719907408</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>45253.73424768518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44273</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>45331</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45184</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>45116.44680555556</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>45545.53883101852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>45741.65699074074</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>45741.69303240741</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>45755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>45887</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>45884</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>45727.35745370371</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
         <v>45727.36243055556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45740.91412037037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>45730.3782175926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>45736</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>44949</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>45799.5803125</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>45743.59641203703</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>45740.59474537037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>45727.36650462963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>45728</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44482</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>45799.50469907407</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>44662</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>45735.65969907407</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>44904.49826388889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17923,7 +17923,7 @@
         <v>45735</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>45737.67416666666</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>45734.35039351852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18094,7 +18094,7 @@
         <v>45734.35122685185</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>44904.59393518518</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>44904.61212962963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         <v>44861.6108912037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         <v>44861</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>45624.41041666667</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>45272</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         <v>45406</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>45587</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44992.66236111111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>45205</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>44423.87825231482</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>44882</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>45805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>45183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>45769.60498842593</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>45373.60802083334</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>45805.60481481482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>45805.58372685185</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45804</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45805.58325231481</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>45806.2833912037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>45806.28703703704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>45455.4374537037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>45806.26452546296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>44571</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>45539.34539351852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>45597.43615740741</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>45811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>44592.28611111111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>45547.83950231481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>45701.31962962963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45810</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>45455.42981481482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45182.71081018518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45643.89232638889</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45892.46936342592</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45892.38811342593</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45461.65380787037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>44622</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>44893</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>45892.42259259259</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45892.43763888889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20632,7 +20632,7 @@
         <v>45561.87885416667</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45037.67510416666</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>45600.48127314815</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20803,7 +20803,7 @@
         <v>45600.48347222222</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>45895.29351851852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>45701.37818287037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>45726.44835648148</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>45215.71418981482</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>45898.46327546296</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45468.44574074074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45371.60959490741</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>45597.53744212963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45819.53688657407</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21373,7 +21373,7 @@
         <v>45819.53980324074</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>45819.5429050926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>45902.67267361111</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21544,7 +21544,7 @@
         <v>45682.47550925926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>44977.26300925926</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>45446.56622685185</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21715,7 +21715,7 @@
         <v>45617.92190972222</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         <v>45777.50512731481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21829,7 +21829,7 @@
         <v>45905.29668981482</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21886,7 +21886,7 @@
         <v>45905.2990162037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45905.30106481481</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45905.30556712963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22057,7 +22057,7 @@
         <v>44585</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>45152</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>45908.90319444444</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45908.92039351852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45720.70986111111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>45908.91429398148</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>45908.92369212963</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         <v>45351.65180555556</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>45693.67859953704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>44846.68375</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>45915.44439814815</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>45915.46344907407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>45775.32407407407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45502.32021990741</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45917.38972222222</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45826</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22974,7 +22974,7 @@
         <v>44904</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>45902</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45189</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45919.2841087963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44507.82581018518</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45358</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45358.61696759259</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>44449</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>45434.58377314815</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23492,7 +23492,7 @@
         <v>45917.83934027778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23549,7 +23549,7 @@
         <v>45294</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>45079</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45922</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>45925.51032407407</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45035</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45833.63770833334</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>44950</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>45240</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>44626</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>45924</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>45923</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>45246.50074074074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45058</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>45679.36950231482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45547.42313657407</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>45929.48050925926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>45119.54038194445</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>45929.54777777778</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>45566</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24667,7 +24667,7 @@
         <v>45566</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>45929.49478009259</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45926</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45929.57009259259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24895,7 +24895,7 @@
         <v>45502.33179398148</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24952,7 +24952,7 @@
         <v>45834.48820601852</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         <v>45681.57619212963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>45210.34773148148</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25180,7 +25180,7 @@
         <v>44614.56209490741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25237,7 +25237,7 @@
         <v>45932.6049537037</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25299,7 +25299,7 @@
         <v>45021</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25356,7 +25356,7 @@
         <v>44963.66563657407</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25413,7 +25413,7 @@
         <v>44935.37284722222</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25470,7 +25470,7 @@
         <v>44867</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25527,7 +25527,7 @@
         <v>45897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>45841.71503472222</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25641,7 +25641,7 @@
         <v>45180</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25698,7 +25698,7 @@
         <v>44904</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25755,7 +25755,7 @@
         <v>44575.80709490741</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>45934.46428240741</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>45841.4390625</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>45735.82282407407</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>45937.31070601852</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>45260.85619212963</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>45756</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>45008</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>45105.34402777778</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>45474.70864583334</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>45943.55663194445</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>45124.59594907407</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26496,7 +26496,7 @@
         <v>45759.5549537037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26553,7 +26553,7 @@
         <v>45051</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>45842.49056712963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44487</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>45945.64072916667</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26781,7 +26781,7 @@
         <v>45797.56770833334</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>45845.60700231481</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>45842.49457175926</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45842.5059375</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45587.47273148148</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45846.73861111111</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45408.67427083333</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>45603.60537037037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>45846.48190972222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>45316</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         <v>45946.64105324074</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>45846</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>44631</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45946.46989583333</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45846</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27651,7 +27651,7 @@
         <v>45846</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45552.48335648148</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45947</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45947</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45946.58961805556</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45946.6571412037</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45751</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28060,7 +28060,7 @@
         <v>45764.53740740741</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>45338.69246527777</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28179,7 +28179,7 @@
         <v>44483.58045138889</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28236,7 +28236,7 @@
         <v>45169</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28293,7 +28293,7 @@
         <v>45630.3944675926</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>45701</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28412,7 +28412,7 @@
         <v>45679.99299768519</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28469,7 +28469,7 @@
         <v>45860.54674768518</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28526,7 +28526,7 @@
         <v>45788.32225694445</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>45769.60440972223</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28640,7 +28640,7 @@
         <v>45861.68065972222</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28697,7 +28697,7 @@
         <v>45861.46241898148</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28754,7 +28754,7 @@
         <v>45862.63645833333</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28811,7 +28811,7 @@
         <v>45645.88440972222</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>45952.36065972222</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>45681.48793981481</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28982,7 +28982,7 @@
         <v>44412.7071875</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29039,7 +29039,7 @@
         <v>45867.66349537037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29096,7 +29096,7 @@
         <v>45952.34659722223</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29153,7 +29153,7 @@
         <v>44923.55936342593</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29210,7 +29210,7 @@
         <v>45764.31284722222</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29267,7 +29267,7 @@
         <v>45957.68560185185</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29324,7 +29324,7 @@
         <v>45954.36755787037</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29381,7 +29381,7 @@
         <v>45300</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29438,7 +29438,7 @@
         <v>45957.6397337963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29495,7 +29495,7 @@
         <v>45788.3231712963</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29552,7 +29552,7 @@
         <v>45870.62930555556</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45958</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29671,7 +29671,7 @@
         <v>45958.47931712963</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         <v>45681.53460648148</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45870.62511574074</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>45958.47756944445</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45958.47553240741</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>44659</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45958</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45958</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45875.57328703703</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>45734.3584837963</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>45455.40401620371</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>44889</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45875.60922453704</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45959.335</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45644.62243055556</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>44853</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45401.34349537037</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>44988</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45471.4034837963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45198.59607638889</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45764.30016203703</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44414</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45876.6799537037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45880.43709490741</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45880.46642361111</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45880.49957175926</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45364.40862268519</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45567</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45188.3012037037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45356.65395833334</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>45915</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>45181</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>45877.87582175926</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>45965.30054398148</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>45966.61328703703</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44965</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>45966.55049768519</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>45966.59260416667</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>45966.60797453704</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>45708.52121527777</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45749.67842592593</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45966.38317129629</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32147,7 +32147,7 @@
         <v>45883.58956018519</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32204,7 +32204,7 @@
         <v>45883.59239583334</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45883.60604166667</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32318,7 +32318,7 @@
         <v>44648</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45883.60416666666</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45968.55791666666</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45447.55340277778</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45972.45856481481</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32603,7 +32603,7 @@
         <v>45973.63210648148</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32660,7 +32660,7 @@
         <v>45586</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32717,7 +32717,7 @@
         <v>45519.49606481481</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>44454.35472222222</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>45974.57275462963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32893,7 +32893,7 @@
         <v>45194</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32950,7 +32950,7 @@
         <v>45974.59898148148</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>45730.65831018519</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>45974</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>45887.62953703704</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>45974.64612268518</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33245,7 +33245,7 @@
         <v>45974.6371875</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>45974.56042824074</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33369,7 +33369,7 @@
         <v>45975.28063657408</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         <v>45763.49306712963</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33483,7 +33483,7 @@
         <v>45643.47644675926</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33540,7 +33540,7 @@
         <v>44943.4652199074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>44943.46980324074</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33654,7 +33654,7 @@
         <v>45887.68474537037</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33711,7 +33711,7 @@
         <v>45887.62158564815</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33768,7 +33768,7 @@
         <v>45799.51578703704</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33825,7 +33825,7 @@
         <v>45587.49814814814</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33882,7 +33882,7 @@
         <v>45974.55534722222</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33944,7 +33944,7 @@
         <v>45974.59596064815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34006,7 +34006,7 @@
         <v>45974.64902777778</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45833.65434027778</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45642.8053125</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>45642.92393518519</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>45979.42626157407</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>45978.4020949074</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45734.59972222222</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>45979</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>45043.43777777778</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>44411</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>45978.7081712963</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>45392.63664351852</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>45643</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>45271</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34814,7 +34814,7 @@
         <v>46026.95020833334</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>46026.95724537037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
         <v>45982.38106481481</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>45215.72212962963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35042,7 +35042,7 @@
         <v>44803.44065972222</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>45673.71842592592</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35156,7 +35156,7 @@
         <v>44957.36059027778</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>46029</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>45460.42804398148</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35327,7 +35327,7 @@
         <v>45030</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35384,7 +35384,7 @@
         <v>44977.26482638889</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>45989.28233796296</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35498,7 +35498,7 @@
         <v>45034</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>46031.42040509259</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35612,7 +35612,7 @@
         <v>46031.42483796296</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35669,7 +35669,7 @@
         <v>46031.42641203704</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>44468</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>46030.36607638889</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>46030.32302083333</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>45750.40476851852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35959,7 +35959,7 @@
         <v>45349</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36016,7 +36016,7 @@
         <v>45988</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>45182</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36130,7 +36130,7 @@
         <v>45763.49402777778</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36187,7 +36187,7 @@
         <v>45758</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36249,7 +36249,7 @@
         <v>45646.67994212963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>45184</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>45169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36420,7 +36420,7 @@
         <v>45169.38410879629</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36477,7 +36477,7 @@
         <v>44704.65815972222</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36534,7 +36534,7 @@
         <v>45401</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>46035.78607638889</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45414</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45758</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36772,7 +36772,7 @@
         <v>45747.45038194444</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36829,7 +36829,7 @@
         <v>45547.43438657407</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36891,7 +36891,7 @@
         <v>45772.45813657407</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36948,7 +36948,7 @@
         <v>45994.65827546296</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45198.41381944445</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         <v>45198.41887731481</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37119,7 +37119,7 @@
         <v>44557</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37176,7 +37176,7 @@
         <v>44886.3340625</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37233,7 +37233,7 @@
         <v>44658</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37290,7 +37290,7 @@
         <v>45303.63494212963</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37352,7 +37352,7 @@
         <v>45580.46572916667</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37409,7 +37409,7 @@
         <v>44550.30402777778</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37466,7 +37466,7 @@
         <v>45455.42533564815</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45130</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45477.33712962963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45547.83519675926</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37704,7 +37704,7 @@
         <v>45112.3174074074</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37761,7 +37761,7 @@
         <v>45112</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37818,7 +37818,7 @@
         <v>45174</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37875,7 +37875,7 @@
         <v>46035.45091435185</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37932,7 +37932,7 @@
         <v>45557.35435185185</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37989,7 +37989,7 @@
         <v>45268</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38046,7 +38046,7 @@
         <v>45995.88019675926</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38103,7 +38103,7 @@
         <v>45777</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38160,7 +38160,7 @@
         <v>46035.80196759259</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38217,7 +38217,7 @@
         <v>44614</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>46041.56586805556</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38331,7 +38331,7 @@
         <v>45462.38087962963</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38388,7 +38388,7 @@
         <v>44861.62300925926</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38445,7 +38445,7 @@
         <v>46041.56237268518</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38502,7 +38502,7 @@
         <v>46038.53177083333</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38564,7 +38564,7 @@
         <v>46043.45107638889</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38621,7 +38621,7 @@
         <v>46043.44930555556</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38678,7 +38678,7 @@
         <v>45324.64302083333</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38740,7 +38740,7 @@
         <v>45270.42966435185</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38797,7 +38797,7 @@
         <v>45588</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38854,7 +38854,7 @@
         <v>45179.9259375</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38911,7 +38911,7 @@
         <v>44507.43497685185</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38968,7 +38968,7 @@
         <v>45755.70262731481</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39025,7 +39025,7 @@
         <v>46041</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39082,7 +39082,7 @@
         <v>46000.64335648148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39139,7 +39139,7 @@
         <v>45618</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39196,7 +39196,7 @@
         <v>46002.61814814815</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39253,7 +39253,7 @@
         <v>45275</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39310,7 +39310,7 @@
         <v>44936</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39367,7 +39367,7 @@
         <v>45538</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39424,7 +39424,7 @@
         <v>46044.64726851852</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>46044.63626157407</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39538,7 +39538,7 @@
         <v>45630.70101851852</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39600,7 +39600,7 @@
         <v>46048.32943287037</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39657,7 +39657,7 @@
         <v>46048.32472222222</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39714,7 +39714,7 @@
         <v>46048.32628472222</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39771,7 +39771,7 @@
         <v>46048</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39828,7 +39828,7 @@
         <v>46043</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39885,7 +39885,7 @@
         <v>46048.31344907408</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39942,7 +39942,7 @@
         <v>45302</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39999,7 +39999,7 @@
         <v>46048</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40056,7 +40056,7 @@
         <v>46048.31101851852</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40113,7 +40113,7 @@
         <v>45300</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40170,7 +40170,7 @@
         <v>45412</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40232,7 +40232,7 @@
         <v>46048</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40294,7 +40294,7 @@
         <v>46048.31534722223</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40351,7 +40351,7 @@
         <v>46049.57688657408</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40408,7 +40408,7 @@
         <v>46007.56581018519</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40465,7 +40465,7 @@
         <v>45764.4140162037</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40522,7 +40522,7 @@
         <v>46049.58122685185</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40579,7 +40579,7 @@
         <v>45182.36129629629</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40636,7 +40636,7 @@
         <v>45523.5090625</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40698,7 +40698,7 @@
         <v>46009.66237268518</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40760,7 +40760,7 @@
         <v>45267.62943287037</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40817,7 +40817,7 @@
         <v>45149</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40874,7 +40874,7 @@
         <v>44943.44532407408</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40931,7 +40931,7 @@
         <v>46050.40528935185</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40988,7 +40988,7 @@
         <v>45615.89965277778</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41045,7 +41045,7 @@
         <v>45615.90662037037</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41102,7 +41102,7 @@
         <v>45523.58461805555</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41164,7 +41164,7 @@
         <v>46008.87585648148</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41226,7 +41226,7 @@
         <v>45706.67424768519</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41288,7 +41288,7 @@
         <v>44449</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41345,7 +41345,7 @@
         <v>46013.35905092592</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>46013.37043981482</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41459,7 +41459,7 @@
         <v>45281.57759259259</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41521,7 +41521,7 @@
         <v>46055.33557870371</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41578,7 +41578,7 @@
         <v>44944.40825231482</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         <v>44614.68596064814</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41692,7 +41692,7 @@
         <v>44729</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41749,7 +41749,7 @@
         <v>46055.69702546296</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41806,7 +41806,7 @@
         <v>46055.69945601852</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41863,7 +41863,7 @@
         <v>46055.70261574074</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41920,7 +41920,7 @@
         <v>45958</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41977,7 +41977,7 @@
         <v>46013.60686342593</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42034,7 +42034,7 @@
         <v>46013.62930555556</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42091,7 +42091,7 @@
         <v>46013.64788194445</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42148,7 +42148,7 @@
         <v>45751.58130787037</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42205,7 +42205,7 @@
         <v>46010.6608449074</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42262,7 +42262,7 @@
         <v>46013.58880787037</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42319,7 +42319,7 @@
         <v>46013.59091435185</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42376,7 +42376,7 @@
         <v>45947</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42433,7 +42433,7 @@
         <v>46009.9044212963</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42495,7 +42495,7 @@
         <v>44648.61840277778</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42552,7 +42552,7 @@
         <v>45470.6672337963</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42609,7 +42609,7 @@
         <v>45177.5462962963</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>46013.36280092593</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>46009.9071875</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42785,7 +42785,7 @@
         <v>46009.89641203704</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42847,7 +42847,7 @@
         <v>46010.65364583334</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>44295.31922453704</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42961,7 +42961,7 @@
         <v>46013.35461805556</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43018,7 +43018,7 @@
         <v>44963</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         <v>46055.30774305556</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43132,7 +43132,7 @@
         <v>46055.30878472222</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43189,7 +43189,7 @@
         <v>44938</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43251,7 +43251,7 @@
         <v>46013.40760416666</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43308,7 +43308,7 @@
         <v>46013.62732638889</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43365,7 +43365,7 @@
         <v>46013.66438657408</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43422,7 +43422,7 @@
         <v>46009.86190972223</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43484,7 +43484,7 @@
         <v>45588</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43541,7 +43541,7 @@
         <v>46013.66993055555</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43598,7 +43598,7 @@
         <v>44655.48328703704</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43655,7 +43655,7 @@
         <v>45687</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43712,7 +43712,7 @@
         <v>45769.43446759259</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43769,7 +43769,7 @@
         <v>44368.64017361111</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         <v>44839</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43888,7 +43888,7 @@
         <v>45092.39466435185</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43945,7 +43945,7 @@
         <v>44893</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44002,7 +44002,7 @@
         <v>46056</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44059,7 +44059,7 @@
         <v>46044.66613425926</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44116,7 +44116,7 @@
         <v>46056.44519675926</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44173,7 +44173,7 @@
         <v>46059.68881944445</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44230,7 +44230,7 @@
         <v>46059.69060185185</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44287,7 +44287,7 @@
         <v>45363.91521990741</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44344,7 +44344,7 @@
         <v>46059.45422453704</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44401,7 +44401,7 @@
         <v>46059</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44458,7 +44458,7 @@
         <v>45314</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         <v>46059.45215277778</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44572,7 +44572,7 @@
         <v>46059.54601851852</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44629,7 +44629,7 @@
         <v>46059.57068287037</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44686,7 +44686,7 @@
         <v>44484.49586805556</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44743,7 +44743,7 @@
         <v>46059.58837962963</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44800,7 +44800,7 @@
         <v>45226.3731712963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44857,7 +44857,7 @@
         <v>44589.74348379629</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44914,7 +44914,7 @@
         <v>46045.35172453704</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44971,7 +44971,7 @@
         <v>46059.55166666667</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45028,7 +45028,7 @@
         <v>44578.52657407407</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45085,7 +45085,7 @@
         <v>46059.59077546297</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45142,7 +45142,7 @@
         <v>45587</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45199,7 +45199,7 @@
         <v>44804</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45256,7 +45256,7 @@
         <v>45043.67869212963</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45313,7 +45313,7 @@
         <v>45113.31806712963</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45370,7 +45370,7 @@
         <v>45751.52445601852</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45432,7 +45432,7 @@
         <v>45701.38606481482</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45489,7 +45489,7 @@
         <v>45558.63807870371</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45551,7 +45551,7 @@
         <v>44992.67101851852</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45628,7 +45628,7 @@
         <v>45637.51090277778</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45685,7 +45685,7 @@
         <v>45644.62803240741</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45742,7 +45742,7 @@
         <v>44433</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45799,7 +45799,7 @@
         <v>44608</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45856,7 +45856,7 @@
         <v>44734</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45918,7 +45918,7 @@
         <v>44734</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45980,7 +45980,7 @@
         <v>44904</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46037,7 +46037,7 @@
         <v>45197.38018518518</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46094,7 +46094,7 @@
         <v>45321</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46151,7 +46151,7 @@
         <v>45043</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46208,7 +46208,7 @@
         <v>44308.520625</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46265,7 +46265,7 @@
         <v>45372.34530092592</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46322,7 +46322,7 @@
         <v>45545.59315972222</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46384,7 +46384,7 @@
         <v>44711</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46441,7 +46441,7 @@
         <v>45477.48771990741</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46498,7 +46498,7 @@
         <v>45477.48915509259</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46555,7 +46555,7 @@
         <v>45299</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46612,7 +46612,7 @@
         <v>44998.8734837963</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46669,7 +46669,7 @@
         <v>45175.44625</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46726,7 +46726,7 @@
         <v>45118</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46783,7 +46783,7 @@
         <v>44591</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46840,7 +46840,7 @@
         <v>45708.50255787037</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46897,7 +46897,7 @@
         <v>45211</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46954,7 +46954,7 @@
         <v>45112</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47011,7 +47011,7 @@
         <v>45375</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47068,7 +47068,7 @@
         <v>45541.36828703704</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47125,7 +47125,7 @@
         <v>44853</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47182,7 +47182,7 @@
         <v>45492.70833333334</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47239,7 +47239,7 @@
         <v>45562.38306712963</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>45477.38554398148</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47353,7 +47353,7 @@
         <v>45477.38663194444</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45359.54100694445</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         <v>45243</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>45184</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         <v>45757</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47643,7 +47643,7 @@
         <v>44355.60153935185</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47700,7 +47700,7 @@
         <v>44950</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>44950</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47814,7 +47814,7 @@
         <v>44360.54226851852</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47871,7 +47871,7 @@
         <v>44930</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47928,7 +47928,7 @@
         <v>45531</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47985,7 +47985,7 @@
         <v>45757.30554398148</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48042,7 +48042,7 @@
         <v>45462.37888888889</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48099,7 +48099,7 @@
         <v>45201</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48156,7 +48156,7 @@
         <v>45547.53320601852</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48213,7 +48213,7 @@
         <v>44325.76335648148</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48270,7 +48270,7 @@
         <v>45201.45827546297</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48327,7 +48327,7 @@
         <v>44719.43577546296</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48384,7 +48384,7 @@
         <v>45335.76891203703</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48446,7 +48446,7 @@
         <v>45092</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48503,7 +48503,7 @@
         <v>45099.74195601852</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48560,7 +48560,7 @@
         <v>44321</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45271</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48679,7 +48679,7 @@
         <v>44943.48144675926</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48736,7 +48736,7 @@
         <v>45201</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48798,7 +48798,7 @@
         <v>44985</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48855,7 +48855,7 @@
         <v>44959.36028935185</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48917,7 +48917,7 @@
         <v>45245.46393518519</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48974,7 +48974,7 @@
         <v>45107</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49031,7 +49031,7 @@
         <v>45764.40184027778</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49088,7 +49088,7 @@
         <v>45314</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49145,7 +49145,7 @@
         <v>45295.40646990741</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49207,7 +49207,7 @@
         <v>45617.91424768518</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49264,7 +49264,7 @@
         <v>45534.36645833333</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49321,7 +49321,7 @@
         <v>45617.45760416667</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49378,7 +49378,7 @@
         <v>45700.60138888889</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49435,7 +49435,7 @@
         <v>44564.8419212963</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49492,7 +49492,7 @@
         <v>45377.42784722222</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49549,7 +49549,7 @@
         <v>45219</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49606,7 +49606,7 @@
         <v>44261</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49663,7 +49663,7 @@
         <v>45363.45982638889</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49720,7 +49720,7 @@
         <v>45240</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49777,7 +49777,7 @@
         <v>44966.57471064815</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49839,7 +49839,7 @@
         <v>45194</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49896,7 +49896,7 @@
         <v>45194</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49953,7 +49953,7 @@
         <v>45112</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50010,7 +50010,7 @@
         <v>45107</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50067,7 +50067,7 @@
         <v>45015</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50124,7 +50124,7 @@
         <v>44904</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50181,7 +50181,7 @@
         <v>45049</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50238,7 +50238,7 @@
         <v>45338</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50300,7 +50300,7 @@
         <v>44893</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50362,7 +50362,7 @@
         <v>45716.7125</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         <v>44894</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50476,7 +50476,7 @@
         <v>45630.6993287037</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50533,7 +50533,7 @@
         <v>44735</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50590,7 +50590,7 @@
         <v>44893.50922453704</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50652,7 +50652,7 @@
         <v>44605.45792824074</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50709,7 +50709,7 @@
         <v>45197.61039351852</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50771,7 +50771,7 @@
         <v>45406.89703703704</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50828,7 +50828,7 @@
         <v>44985.35407407407</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50885,7 +50885,7 @@
         <v>45051.37461805555</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50942,7 +50942,7 @@
         <v>44484</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50999,7 +50999,7 @@
         <v>45770.51686342592</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51056,7 +51056,7 @@
         <v>45558.51949074074</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51118,7 +51118,7 @@
         <v>45758</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51180,7 +51180,7 @@
         <v>45706.66618055556</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51242,7 +51242,7 @@
         <v>45671.44716435186</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51299,7 +51299,7 @@
         <v>45705</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51356,7 +51356,7 @@
         <v>45740.59871527777</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51413,7 +51413,7 @@
         <v>45693</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51470,7 +51470,7 @@
         <v>45009</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51527,7 +51527,7 @@
         <v>44272</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51584,7 +51584,7 @@
         <v>45127</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51641,7 +51641,7 @@
         <v>44677</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51698,7 +51698,7 @@
         <v>45706.69090277778</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51760,7 +51760,7 @@
         <v>45756</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51817,7 +51817,7 @@
         <v>45324.64579861111</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51879,7 +51879,7 @@
         <v>45324.64745370371</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51941,7 +51941,7 @@
         <v>45671.44894675926</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51998,7 +51998,7 @@
         <v>45414</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>45761.49107638889</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>44741.69432870371</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52169,7 +52169,7 @@
         <v>45223.65527777778</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         <v>45547.43793981482</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>45541.37402777778</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52345,7 +52345,7 @@
         <v>45600.47958333333</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52402,7 +52402,7 @@
         <v>45435</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52464,7 +52464,7 @@
         <v>44967.6228125</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52521,7 +52521,7 @@
         <v>44734</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45617.48947916667</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>45747.30204861111</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52697,7 +52697,7 @@
         <v>45533.46368055556</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52754,7 +52754,7 @@
         <v>45706.66388888889</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52816,7 +52816,7 @@
         <v>44249.66673611111</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52873,7 +52873,7 @@
         <v>44249</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52930,7 +52930,7 @@
         <v>45635.28104166667</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52987,7 +52987,7 @@
         <v>45541</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53044,7 +53044,7 @@
         <v>45201</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53101,7 +53101,7 @@
         <v>45201.59743055556</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53158,7 +53158,7 @@
         <v>45341</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53215,7 +53215,7 @@
         <v>44950</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53272,7 +53272,7 @@
         <v>45099</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53329,7 +53329,7 @@
         <v>45681.57949074074</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53386,7 +53386,7 @@
         <v>45715.65605324074</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         <v>44627.41212962963</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53500,7 +53500,7 @@
         <v>45056</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53557,7 +53557,7 @@
         <v>45764.53915509259</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53614,7 +53614,7 @@
         <v>45748</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53676,7 +53676,7 @@
         <v>45355.56604166667</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53733,7 +53733,7 @@
         <v>44966.52741898148</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53795,7 +53795,7 @@
         <v>44588.50104166667</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53852,7 +53852,7 @@
         <v>44488</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53909,7 +53909,7 @@
         <v>44361</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53966,7 +53966,7 @@
         <v>45197</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54023,7 +54023,7 @@
         <v>45547.84315972222</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54085,7 +54085,7 @@
         <v>45691.5603125</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54142,7 +54142,7 @@
         <v>44897.3564699074</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54204,7 +54204,7 @@
         <v>45764.3996412037</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54261,7 +54261,7 @@
         <v>45764.42006944444</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54318,7 +54318,7 @@
         <v>45764.42517361111</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54375,7 +54375,7 @@
         <v>45545.65415509259</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54437,7 +54437,7 @@
         <v>44540.57753472222</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54494,7 +54494,7 @@
         <v>45198.60034722222</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54551,7 +54551,7 @@
         <v>45056.6438425926</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54608,7 +54608,7 @@
         <v>45406.89568287037</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54665,7 +54665,7 @@
         <v>45406.89640046296</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54722,7 +54722,7 @@
         <v>45747.45177083334</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54779,7 +54779,7 @@
         <v>45440.3712037037</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54836,7 +54836,7 @@
         <v>45216.47443287037</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54893,7 +54893,7 @@
         <v>45667.63950231481</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54950,7 +54950,7 @@
         <v>45777.60824074074</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55007,7 +55007,7 @@
         <v>45519.48550925926</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55064,7 +55064,7 @@
         <v>45785.65899305556</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55121,7 +55121,7 @@
         <v>45586.62837962963</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55178,7 +55178,7 @@
         <v>45789.54226851852</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55235,7 +55235,7 @@
         <v>45790.81799768518</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55292,7 +55292,7 @@
         <v>45541.38644675926</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55349,7 +55349,7 @@
         <v>45551.36004629629</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55406,7 +55406,7 @@
         <v>45350.56959490741</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55463,7 +55463,7 @@
         <v>45646.5796412037</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55520,7 +55520,7 @@
         <v>45790.82361111111</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55577,7 +55577,7 @@
         <v>45791.85732638889</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55634,7 +55634,7 @@
         <v>45793</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55691,7 +55691,7 @@
         <v>45570.58934027778</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55748,7 +55748,7 @@
         <v>45797.67148148148</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>

--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>45856.56684027778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45856.57200231482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>46013.37362268518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45936.82814814815</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45609</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>45348</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>45275</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         <v>46055</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45698.48634259259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45930.60978009259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>45939.60743055555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44512.62668981482</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45930.6172337963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>45846.47335648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>45788.88578703703</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44992</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>46003.66630787037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>46055</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44530</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44602</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44974</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>45604.53402777778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45539</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>45898.45456018519</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>45373.44148148148</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>45947</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>45982.56368055556</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>45302</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44991</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45358.52763888889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>45790.83706018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>45679.98452546296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44278</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44536</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44347.63069444444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>44469</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45580.46207175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>45295.3942824074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>44840</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44404.71972222222</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>45740.58743055556</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>45726.52925925926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>45587</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>45819.60131944445</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45924.51141203703</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         <v>45841.4303125</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         <v>44943</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>45846</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5006,7 +5006,7 @@
         <v>45616</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>45856.55965277777</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         <v>45538.45523148148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>45205</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>45846</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>45876.69954861111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>46049.58559027778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45302</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>46055.33665509259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>44879</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>45758</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45343</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>45569.41550925926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>45783</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>44260</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>44306</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>44308</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>44328.35063657408</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>44239.33525462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>44496</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>44404.84280092592</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>44404.84659722223</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>44278.3859375</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>44575.80925925926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>44662</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>44487</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>44749.55703703704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>44749.55936342593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>44273.62572916667</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>44308</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>44308</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44349</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44792.53711805555</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44411</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>44809</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>44442</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>44487.49392361111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>44749.32716435185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44487</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44420.68987268519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>44881.81052083334</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>44404.84138888889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>44266</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44665.60081018518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>44869.49265046296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44734</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>44792</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>44259</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44365</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44487</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>44487</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44875.59231481481</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44263</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44272</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>44852.74376157407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44292</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44498.56373842592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44881.79847222222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44286.34827546297</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44538</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44673</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44298.46462962963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44298.46582175926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44278.38752314815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>44273</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>44279.37552083333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9231,7 +9231,7 @@
         <v>44347.61920138889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>44754.47359953704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44855.3080787037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44476</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44373.75251157407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44347.6287962963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44511</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44466.4425</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>44377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>44440.71997685185</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>44840</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>44280</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>44613</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>44537</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>44456.46952546296</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44356</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>44360</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>44476</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44575</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>44298.44060185185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44711</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>44659.57226851852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>44659</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>44454.4800925926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>44578</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>44474.25150462963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>44579.41064814815</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>44557.71989583333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>44373</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>44616.39256944445</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44239</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>44239</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>44464.40523148148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44294</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>44575</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>44428.58511574074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44279.61517361111</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44252</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44326</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44575.8194212963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>44428.596875</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>44819</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>44819.28449074074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>44523.65311342593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44292</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         <v>44846.66688657407</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>44605.44909722222</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
         <v>44344</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>44628</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>44711</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12111,7 +12111,7 @@
         <v>44711</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12168,7 +12168,7 @@
         <v>44841.31997685185</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44792.53936342592</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>44467.68283564815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12339,7 +12339,7 @@
         <v>44259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>44412</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44830.90146990741</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44787.80010416666</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44825.40940972222</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44614</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44585.30171296297</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44579</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>44711</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         <v>44428.34821759259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>44272</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12981,7 +12981,7 @@
         <v>44308</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13043,7 +13043,7 @@
         <v>44428</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44488</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44464.42415509259</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44596</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44498.57181712963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44532.30398148148</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44729</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>44272</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>44805</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>44811</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45735.81920138889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>45477.38181712963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>44853</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>45252.58925925926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44750</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>45435.51875</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>45114.55280092593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>45764.30391203704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>45272.42149305555</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>44711</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>45617.4922337963</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>44979</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>45469.43982638889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>45697.26537037037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>45169</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>45048</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>45605.84435185185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>45152</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>45747.73295138889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>45012</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>45404.58408564814</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>45111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>45642.60125</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44628</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44589.73825231481</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>45145.47684027778</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>45177</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15224,7 +15224,7 @@
         <v>45307.72520833334</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15281,7 +15281,7 @@
         <v>45726.42344907407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>45012.47533564815</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>44998</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>45621.52488425926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>45621.5278125</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>45436.68626157408</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>45405</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>45405</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
         <v>45092.42630787037</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15799,7 +15799,7 @@
         <v>45295.4037962963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>45621</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>45392.58569444445</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>44943.44811342593</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>45645.57626157408</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>45757.29700231482</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>44252</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>45456.66137731481</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44943</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>44938.53719907408</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>45253.73424768518</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44273</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>45331</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>45184</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16607,7 +16607,7 @@
         <v>45116.44680555556</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16664,7 +16664,7 @@
         <v>45545.53883101852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16721,7 +16721,7 @@
         <v>45741.65699074074</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16778,7 +16778,7 @@
         <v>45741.69303240741</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16835,7 +16835,7 @@
         <v>45755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16892,7 +16892,7 @@
         <v>45887</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>45884</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>45727.35745370371</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
         <v>45727.36243055556</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45740.91412037037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>45730.3782175926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
         <v>45736</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17296,7 +17296,7 @@
         <v>44949</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17353,7 +17353,7 @@
         <v>45799.5803125</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>45743.59641203703</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17467,7 +17467,7 @@
         <v>45740.59474537037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         <v>45727.36650462963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>45728</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17638,7 +17638,7 @@
         <v>44482</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>45799.50469907407</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17752,7 +17752,7 @@
         <v>44662</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17809,7 +17809,7 @@
         <v>45735.65969907407</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17866,7 +17866,7 @@
         <v>44904.49826388889</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17923,7 +17923,7 @@
         <v>45735</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17980,7 +17980,7 @@
         <v>45737.67416666666</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18037,7 +18037,7 @@
         <v>45734.35039351852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18094,7 +18094,7 @@
         <v>45734.35122685185</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>44904.59393518518</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18213,7 +18213,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>44904.61212962963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         <v>44861.6108912037</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         <v>44861</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>45624.41041666667</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>45272</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         <v>45406</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         <v>45587</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18674,7 +18674,7 @@
         <v>44992.66236111111</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18731,7 +18731,7 @@
         <v>45205</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>44423.87825231482</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>44882</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>45805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>45183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>45769.60498842593</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>45373.60802083334</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>45805.60481481482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>45805.58372685185</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>45804</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>45805.58325231481</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>45806.2833912037</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>45806.28703703704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>45455.4374537037</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>45806.26452546296</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>44571</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>45539.34539351852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>45597.43615740741</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>45811</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>44592.28611111111</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19876,7 +19876,7 @@
         <v>45547.83950231481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>45701.31962962963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45810</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>45455.42981481482</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45182.71081018518</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20171,7 +20171,7 @@
         <v>45643.89232638889</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20228,7 +20228,7 @@
         <v>45892.46936342592</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20285,7 +20285,7 @@
         <v>45892.38811342593</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>45461.65380787037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20399,7 +20399,7 @@
         <v>44622</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>44893</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>45892.42259259259</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20575,7 +20575,7 @@
         <v>45892.43763888889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20632,7 +20632,7 @@
         <v>45561.87885416667</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20689,7 +20689,7 @@
         <v>45037.67510416666</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20746,7 +20746,7 @@
         <v>45600.48127314815</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20803,7 +20803,7 @@
         <v>45600.48347222222</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20860,7 +20860,7 @@
         <v>45895.29351851852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>45701.37818287037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         <v>45726.44835648148</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>45215.71418981482</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>45898.46327546296</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45468.44574074074</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45371.60959490741</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         <v>45597.53744212963</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45819.53688657407</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21373,7 +21373,7 @@
         <v>45819.53980324074</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21430,7 +21430,7 @@
         <v>45819.5429050926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>45902.67267361111</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21544,7 +21544,7 @@
         <v>45682.47550925926</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21601,7 +21601,7 @@
         <v>44977.26300925926</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21658,7 +21658,7 @@
         <v>45446.56622685185</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21715,7 +21715,7 @@
         <v>45617.92190972222</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         <v>45777.50512731481</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21829,7 +21829,7 @@
         <v>45905.29668981482</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21886,7 +21886,7 @@
         <v>45905.2990162037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>45905.30106481481</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>45905.30556712963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22057,7 +22057,7 @@
         <v>44585</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>45152</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22171,7 +22171,7 @@
         <v>45908.90319444444</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22228,7 +22228,7 @@
         <v>45908.92039351852</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
         <v>45720.70986111111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>45908.91429398148</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>45908.92369212963</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22456,7 +22456,7 @@
         <v>45351.65180555556</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>45693.67859953704</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>44846.68375</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>45915.44439814815</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22689,7 +22689,7 @@
         <v>45915.46344907407</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>45775.32407407407</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>45502.32021990741</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45917.38972222222</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45826</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22974,7 +22974,7 @@
         <v>44904</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23036,7 +23036,7 @@
         <v>45902</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45189</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45919.2841087963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>44507.82581018518</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45358</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45358.61696759259</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>44449</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>45434.58377314815</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23492,7 +23492,7 @@
         <v>45917.83934027778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23549,7 +23549,7 @@
         <v>45294</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>45079</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>45922</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23725,7 +23725,7 @@
         <v>45925.51032407407</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23782,7 +23782,7 @@
         <v>45035</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23839,7 +23839,7 @@
         <v>45833.63770833334</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         <v>44950</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23953,7 +23953,7 @@
         <v>45240</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24010,7 +24010,7 @@
         <v>44626</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         <v>45924</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24124,7 +24124,7 @@
         <v>45923</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>45246.50074074074</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45058</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24320,7 +24320,7 @@
         <v>45679.36950231482</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24377,7 +24377,7 @@
         <v>45547.42313657407</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>45929.48050925926</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>45119.54038194445</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>45929.54777777778</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>45566</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24667,7 +24667,7 @@
         <v>45566</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>45929.49478009259</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24781,7 +24781,7 @@
         <v>45926</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45929.57009259259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24895,7 +24895,7 @@
         <v>45502.33179398148</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24952,7 +24952,7 @@
         <v>45834.48820601852</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         <v>45681.57619212963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25123,7 +25123,7 @@
         <v>45210.34773148148</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25180,7 +25180,7 @@
         <v>44614.56209490741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25237,7 +25237,7 @@
         <v>45932.6049537037</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25299,7 +25299,7 @@
         <v>45021</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25356,7 +25356,7 @@
         <v>44963.66563657407</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25413,7 +25413,7 @@
         <v>44935.37284722222</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25470,7 +25470,7 @@
         <v>44867</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25527,7 +25527,7 @@
         <v>45897</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>45841.71503472222</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25641,7 +25641,7 @@
         <v>45180</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25698,7 +25698,7 @@
         <v>44904</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25755,7 +25755,7 @@
         <v>44575.80709490741</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25812,7 +25812,7 @@
         <v>45497</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>45934.46428240741</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>45841.4390625</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>45735.82282407407</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>45937.31070601852</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>45260.85619212963</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>45756</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>45008</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>45105.34402777778</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>45474.70864583334</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>45943.55663194445</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>45124.59594907407</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26496,7 +26496,7 @@
         <v>45759.5549537037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26553,7 +26553,7 @@
         <v>45051</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>45842.49056712963</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44487</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>45945.64072916667</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26781,7 +26781,7 @@
         <v>45797.56770833334</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26838,7 +26838,7 @@
         <v>45845.60700231481</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26895,7 +26895,7 @@
         <v>45842.49457175926</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>45842.5059375</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>45587.47273148148</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27066,7 +27066,7 @@
         <v>45846.73861111111</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27123,7 +27123,7 @@
         <v>45408.67427083333</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>45603.60537037037</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>45846.48190972222</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>45316</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         <v>45946.64105324074</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>45846</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>44631</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>45946.46989583333</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45846</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27651,7 +27651,7 @@
         <v>45846</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27713,7 +27713,7 @@
         <v>45552.48335648148</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27770,7 +27770,7 @@
         <v>45947</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27827,7 +27827,7 @@
         <v>45947</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27884,7 +27884,7 @@
         <v>45946.58961805556</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27941,7 +27941,7 @@
         <v>45946.6571412037</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27998,7 +27998,7 @@
         <v>45751</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28060,7 +28060,7 @@
         <v>45764.53740740741</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>45338.69246527777</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28179,7 +28179,7 @@
         <v>44483.58045138889</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28236,7 +28236,7 @@
         <v>45169</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28293,7 +28293,7 @@
         <v>45630.3944675926</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>45701</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28412,7 +28412,7 @@
         <v>45679.99299768519</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28469,7 +28469,7 @@
         <v>45860.54674768518</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28526,7 +28526,7 @@
         <v>45788.32225694445</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>45769.60440972223</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28640,7 +28640,7 @@
         <v>45861.68065972222</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28697,7 +28697,7 @@
         <v>45861.46241898148</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28754,7 +28754,7 @@
         <v>45862.63645833333</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28811,7 +28811,7 @@
         <v>45645.88440972222</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28868,7 +28868,7 @@
         <v>45952.36065972222</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28925,7 +28925,7 @@
         <v>45681.48793981481</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28982,7 +28982,7 @@
         <v>44412.7071875</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29039,7 +29039,7 @@
         <v>45867.66349537037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29096,7 +29096,7 @@
         <v>45952.34659722223</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29153,7 +29153,7 @@
         <v>44923.55936342593</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29210,7 +29210,7 @@
         <v>45764.31284722222</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29267,7 +29267,7 @@
         <v>45957.68560185185</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29324,7 +29324,7 @@
         <v>45954.36755787037</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29381,7 +29381,7 @@
         <v>45300</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29438,7 +29438,7 @@
         <v>45957.6397337963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29495,7 +29495,7 @@
         <v>45788.3231712963</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29552,7 +29552,7 @@
         <v>45870.62930555556</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29614,7 +29614,7 @@
         <v>45958</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29671,7 +29671,7 @@
         <v>45958.47931712963</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29728,7 +29728,7 @@
         <v>45681.53460648148</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29785,7 +29785,7 @@
         <v>45870.62511574074</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>45958.47756944445</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>45958.47553240741</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>44659</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45958</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>45958</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45875.57328703703</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>45734.3584837963</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>45455.40401620371</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>44889</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45875.60922453704</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45959.335</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45644.62243055556</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>44853</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45401.34349537037</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>44988</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>45471.4034837963</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45198.59607638889</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45764.30016203703</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>44414</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45876.6799537037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45880.43709490741</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>45880.46642361111</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45880.49957175926</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45364.40862268519</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>45567</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>45188.3012037037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>45356.65395833334</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>45915</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>45181</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44882</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>45877.87582175926</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>45965.30054398148</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>45966.61328703703</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44965</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>45966.55049768519</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>45966.59260416667</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>45966.60797453704</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>45708.52121527777</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45749.67842592593</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32090,7 +32090,7 @@
         <v>45966.38317129629</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32147,7 +32147,7 @@
         <v>45883.58956018519</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32204,7 +32204,7 @@
         <v>45883.59239583334</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32261,7 +32261,7 @@
         <v>45883.60604166667</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32318,7 +32318,7 @@
         <v>44648</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32375,7 +32375,7 @@
         <v>45883.60416666666</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32432,7 +32432,7 @@
         <v>45968.55791666666</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32489,7 +32489,7 @@
         <v>45447.55340277778</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         <v>45972.45856481481</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32603,7 +32603,7 @@
         <v>45973.63210648148</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32660,7 +32660,7 @@
         <v>45586</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32717,7 +32717,7 @@
         <v>45519.49606481481</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32774,7 +32774,7 @@
         <v>44454.35472222222</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32831,7 +32831,7 @@
         <v>45974.57275462963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32893,7 +32893,7 @@
         <v>45194</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32950,7 +32950,7 @@
         <v>45974.59898148148</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>45730.65831018519</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>45974</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>45887.62953703704</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>45974.64612268518</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33245,7 +33245,7 @@
         <v>45974.6371875</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>45974.56042824074</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33369,7 +33369,7 @@
         <v>45975.28063657408</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         <v>45763.49306712963</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33483,7 +33483,7 @@
         <v>45643.47644675926</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33540,7 +33540,7 @@
         <v>44943.4652199074</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>44943.46980324074</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33654,7 +33654,7 @@
         <v>45887.68474537037</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33711,7 +33711,7 @@
         <v>45887.62158564815</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33768,7 +33768,7 @@
         <v>45799.51578703704</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33825,7 +33825,7 @@
         <v>45587.49814814814</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33882,7 +33882,7 @@
         <v>45974.55534722222</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33944,7 +33944,7 @@
         <v>45974.59596064815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34006,7 +34006,7 @@
         <v>45974.64902777778</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45833.65434027778</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45642.8053125</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>45642.92393518519</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>45979.42626157407</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>45978.4020949074</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45734.59972222222</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>45979</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>45043.43777777778</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34529,7 +34529,7 @@
         <v>44411</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34586,7 +34586,7 @@
         <v>45978.7081712963</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>45392.63664351852</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>45643</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34757,7 +34757,7 @@
         <v>45271</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34814,7 +34814,7 @@
         <v>46026.95020833334</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34871,7 +34871,7 @@
         <v>46026.95724537037</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34928,7 +34928,7 @@
         <v>45982.38106481481</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>45215.72212962963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35042,7 +35042,7 @@
         <v>44803.44065972222</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>45673.71842592592</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35156,7 +35156,7 @@
         <v>44957.36059027778</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35213,7 +35213,7 @@
         <v>46029</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35270,7 +35270,7 @@
         <v>45460.42804398148</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35327,7 +35327,7 @@
         <v>45030</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35384,7 +35384,7 @@
         <v>44977.26482638889</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>45989.28233796296</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35498,7 +35498,7 @@
         <v>45034</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35555,7 +35555,7 @@
         <v>46031.42040509259</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35612,7 +35612,7 @@
         <v>46031.42483796296</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35669,7 +35669,7 @@
         <v>46031.42641203704</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>44468</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>46030.36607638889</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>46030.32302083333</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>45750.40476851852</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35959,7 +35959,7 @@
         <v>45349</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36016,7 +36016,7 @@
         <v>45988</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>45182</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36130,7 +36130,7 @@
         <v>45763.49402777778</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36187,7 +36187,7 @@
         <v>45758</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36249,7 +36249,7 @@
         <v>45646.67994212963</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>45184</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36363,7 +36363,7 @@
         <v>45169</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36420,7 +36420,7 @@
         <v>45169.38410879629</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36477,7 +36477,7 @@
         <v>44704.65815972222</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36534,7 +36534,7 @@
         <v>45401</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>46035.78607638889</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36653,7 +36653,7 @@
         <v>45414</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36710,7 +36710,7 @@
         <v>45758</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36772,7 +36772,7 @@
         <v>45747.45038194444</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36829,7 +36829,7 @@
         <v>45547.43438657407</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36891,7 +36891,7 @@
         <v>45772.45813657407</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36948,7 +36948,7 @@
         <v>45994.65827546296</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45198.41381944445</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         <v>45198.41887731481</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37119,7 +37119,7 @@
         <v>44557</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37176,7 +37176,7 @@
         <v>44886.3340625</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37233,7 +37233,7 @@
         <v>44658</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37290,7 +37290,7 @@
         <v>45303.63494212963</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37352,7 +37352,7 @@
         <v>45580.46572916667</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37409,7 +37409,7 @@
         <v>44550.30402777778</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37466,7 +37466,7 @@
         <v>45455.42533564815</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45130</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45477.33712962963</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45547.83519675926</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37704,7 +37704,7 @@
         <v>45112.3174074074</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37761,7 +37761,7 @@
         <v>45112</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37818,7 +37818,7 @@
         <v>45174</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37875,7 +37875,7 @@
         <v>46035.45091435185</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37932,7 +37932,7 @@
         <v>45557.35435185185</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37989,7 +37989,7 @@
         <v>45268</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38046,7 +38046,7 @@
         <v>45995.88019675926</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38103,7 +38103,7 @@
         <v>45777</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38160,7 +38160,7 @@
         <v>46035.80196759259</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38217,7 +38217,7 @@
         <v>44614</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>46041.56586805556</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38331,7 +38331,7 @@
         <v>45462.38087962963</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38388,7 +38388,7 @@
         <v>44861.62300925926</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38445,7 +38445,7 @@
         <v>46041.56237268518</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38502,7 +38502,7 @@
         <v>46038.53177083333</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38564,7 +38564,7 @@
         <v>46043.45107638889</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38621,7 +38621,7 @@
         <v>46043.44930555556</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38678,7 +38678,7 @@
         <v>45324.64302083333</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38740,7 +38740,7 @@
         <v>45270.42966435185</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38797,7 +38797,7 @@
         <v>45588</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38854,7 +38854,7 @@
         <v>45179.9259375</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38911,7 +38911,7 @@
         <v>44507.43497685185</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38968,7 +38968,7 @@
         <v>45755.70262731481</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39025,7 +39025,7 @@
         <v>46041</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39082,7 +39082,7 @@
         <v>46000.64335648148</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39139,7 +39139,7 @@
         <v>45618</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39196,7 +39196,7 @@
         <v>46002.61814814815</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39253,7 +39253,7 @@
         <v>45275</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39310,7 +39310,7 @@
         <v>44936</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39367,7 +39367,7 @@
         <v>45538</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39424,7 +39424,7 @@
         <v>46044.64726851852</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>46044.63626157407</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39538,7 +39538,7 @@
         <v>45630.70101851852</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39600,7 +39600,7 @@
         <v>46048.32943287037</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39657,7 +39657,7 @@
         <v>46048.32472222222</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39714,7 +39714,7 @@
         <v>46048.32628472222</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39771,7 +39771,7 @@
         <v>46048</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39828,7 +39828,7 @@
         <v>46043</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39885,7 +39885,7 @@
         <v>46048.31344907408</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39942,7 +39942,7 @@
         <v>45302</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39999,7 +39999,7 @@
         <v>46048</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40056,7 +40056,7 @@
         <v>46048.31101851852</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40113,7 +40113,7 @@
         <v>45300</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40170,7 +40170,7 @@
         <v>45412</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40232,7 +40232,7 @@
         <v>46048</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40294,7 +40294,7 @@
         <v>46048.31534722223</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40351,7 +40351,7 @@
         <v>46049.57688657408</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40408,7 +40408,7 @@
         <v>46007.56581018519</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40465,7 +40465,7 @@
         <v>45764.4140162037</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40522,7 +40522,7 @@
         <v>46049.58122685185</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40579,7 +40579,7 @@
         <v>45182.36129629629</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40636,7 +40636,7 @@
         <v>45523.5090625</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40698,7 +40698,7 @@
         <v>46009.66237268518</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40760,7 +40760,7 @@
         <v>45267.62943287037</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40817,7 +40817,7 @@
         <v>45149</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40874,7 +40874,7 @@
         <v>44943.44532407408</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40931,7 +40931,7 @@
         <v>46050.40528935185</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40988,7 +40988,7 @@
         <v>45615.89965277778</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41045,7 +41045,7 @@
         <v>45615.90662037037</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41102,7 +41102,7 @@
         <v>45523.58461805555</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41164,7 +41164,7 @@
         <v>46008.87585648148</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41226,7 +41226,7 @@
         <v>45706.67424768519</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41288,7 +41288,7 @@
         <v>44449</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41345,7 +41345,7 @@
         <v>46013.35905092592</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>46013.37043981482</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41459,7 +41459,7 @@
         <v>45281.57759259259</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41521,7 +41521,7 @@
         <v>46055.33557870371</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41578,7 +41578,7 @@
         <v>44944.40825231482</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         <v>44614.68596064814</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41692,7 +41692,7 @@
         <v>44729</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41749,7 +41749,7 @@
         <v>46055.69702546296</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41806,7 +41806,7 @@
         <v>46055.69945601852</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41863,7 +41863,7 @@
         <v>46055.70261574074</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41920,7 +41920,7 @@
         <v>45958</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41977,7 +41977,7 @@
         <v>46013.60686342593</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42034,7 +42034,7 @@
         <v>46013.62930555556</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42091,7 +42091,7 @@
         <v>46013.64788194445</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42148,7 +42148,7 @@
         <v>45751.58130787037</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42205,7 +42205,7 @@
         <v>46010.6608449074</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42262,7 +42262,7 @@
         <v>46013.58880787037</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42319,7 +42319,7 @@
         <v>46013.59091435185</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42376,7 +42376,7 @@
         <v>45947</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42433,7 +42433,7 @@
         <v>46009.9044212963</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42495,7 +42495,7 @@
         <v>44648.61840277778</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42552,7 +42552,7 @@
         <v>45470.6672337963</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42609,7 +42609,7 @@
         <v>45177.5462962963</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42666,7 +42666,7 @@
         <v>46013.36280092593</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42723,7 +42723,7 @@
         <v>46009.9071875</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42785,7 +42785,7 @@
         <v>46009.89641203704</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42847,7 +42847,7 @@
         <v>46010.65364583334</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42904,7 +42904,7 @@
         <v>44295.31922453704</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42961,7 +42961,7 @@
         <v>46013.35461805556</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43018,7 +43018,7 @@
         <v>44963</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43075,7 +43075,7 @@
         <v>46055.30774305556</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43132,7 +43132,7 @@
         <v>46055.30878472222</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43189,7 +43189,7 @@
         <v>44938</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43251,7 +43251,7 @@
         <v>46013.40760416666</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43308,7 +43308,7 @@
         <v>46013.62732638889</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43365,7 +43365,7 @@
         <v>46013.66438657408</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43422,7 +43422,7 @@
         <v>46009.86190972223</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43484,7 +43484,7 @@
         <v>45588</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43541,7 +43541,7 @@
         <v>46013.66993055555</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43598,7 +43598,7 @@
         <v>44655.48328703704</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43655,7 +43655,7 @@
         <v>45687</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43712,7 +43712,7 @@
         <v>45769.43446759259</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43769,7 +43769,7 @@
         <v>44368.64017361111</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43826,7 +43826,7 @@
         <v>44839</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43888,7 +43888,7 @@
         <v>45092.39466435185</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43945,7 +43945,7 @@
         <v>44893</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44002,7 +44002,7 @@
         <v>46056</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44059,7 +44059,7 @@
         <v>46044.66613425926</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44116,7 +44116,7 @@
         <v>46056.44519675926</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44173,7 +44173,7 @@
         <v>46059.68881944445</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44230,7 +44230,7 @@
         <v>46059.69060185185</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44287,7 +44287,7 @@
         <v>45363.91521990741</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44344,7 +44344,7 @@
         <v>46059.45422453704</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44401,7 +44401,7 @@
         <v>46059</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44458,7 +44458,7 @@
         <v>45314</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44515,7 +44515,7 @@
         <v>46059.45215277778</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44572,7 +44572,7 @@
         <v>46059.54601851852</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44629,7 +44629,7 @@
         <v>46059.57068287037</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44686,7 +44686,7 @@
         <v>44484.49586805556</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44743,7 +44743,7 @@
         <v>46059.58837962963</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44800,7 +44800,7 @@
         <v>45226.3731712963</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44857,7 +44857,7 @@
         <v>44589.74348379629</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44914,7 +44914,7 @@
         <v>46045.35172453704</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -44971,7 +44971,7 @@
         <v>46059.55166666667</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45028,7 +45028,7 @@
         <v>44578.52657407407</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45085,7 +45085,7 @@
         <v>46059.59077546297</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45142,7 +45142,7 @@
         <v>45587</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45199,7 +45199,7 @@
         <v>44804</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45256,7 +45256,7 @@
         <v>45043.67869212963</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45313,7 +45313,7 @@
         <v>45113.31806712963</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45370,7 +45370,7 @@
         <v>45751.52445601852</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45432,7 +45432,7 @@
         <v>45701.38606481482</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45489,7 +45489,7 @@
         <v>45558.63807870371</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45551,7 +45551,7 @@
         <v>44992.67101851852</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45628,7 +45628,7 @@
         <v>45637.51090277778</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45685,7 +45685,7 @@
         <v>45644.62803240741</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45742,7 +45742,7 @@
         <v>44433</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45799,7 +45799,7 @@
         <v>44608</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45856,7 +45856,7 @@
         <v>44734</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45918,7 +45918,7 @@
         <v>44734</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45980,7 +45980,7 @@
         <v>44904</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46037,7 +46037,7 @@
         <v>45197.38018518518</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46094,7 +46094,7 @@
         <v>45321</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46151,7 +46151,7 @@
         <v>45043</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46208,7 +46208,7 @@
         <v>44308.520625</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46265,7 +46265,7 @@
         <v>45372.34530092592</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46322,7 +46322,7 @@
         <v>45545.59315972222</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46384,7 +46384,7 @@
         <v>44711</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46441,7 +46441,7 @@
         <v>45477.48771990741</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46498,7 +46498,7 @@
         <v>45477.48915509259</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46555,7 +46555,7 @@
         <v>45299</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46612,7 +46612,7 @@
         <v>44998.8734837963</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46669,7 +46669,7 @@
         <v>45175.44625</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46726,7 +46726,7 @@
         <v>45118</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46783,7 +46783,7 @@
         <v>44591</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46840,7 +46840,7 @@
         <v>45708.50255787037</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46897,7 +46897,7 @@
         <v>45211</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46954,7 +46954,7 @@
         <v>45112</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47011,7 +47011,7 @@
         <v>45375</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47068,7 +47068,7 @@
         <v>45541.36828703704</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47125,7 +47125,7 @@
         <v>44853</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47182,7 +47182,7 @@
         <v>45492.70833333334</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47239,7 +47239,7 @@
         <v>45562.38306712963</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47296,7 +47296,7 @@
         <v>45477.38554398148</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47353,7 +47353,7 @@
         <v>45477.38663194444</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47410,7 +47410,7 @@
         <v>45359.54100694445</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47467,7 +47467,7 @@
         <v>45243</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47529,7 +47529,7 @@
         <v>45184</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47586,7 +47586,7 @@
         <v>45757</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47643,7 +47643,7 @@
         <v>44355.60153935185</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47700,7 +47700,7 @@
         <v>44950</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>44950</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47814,7 +47814,7 @@
         <v>44360.54226851852</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47871,7 +47871,7 @@
         <v>44930</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47928,7 +47928,7 @@
         <v>45531</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -47985,7 +47985,7 @@
         <v>45757.30554398148</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48042,7 +48042,7 @@
         <v>45462.37888888889</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48099,7 +48099,7 @@
         <v>45201</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48156,7 +48156,7 @@
         <v>45547.53320601852</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48213,7 +48213,7 @@
         <v>44325.76335648148</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48270,7 +48270,7 @@
         <v>45201.45827546297</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48327,7 +48327,7 @@
         <v>44719.43577546296</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48384,7 +48384,7 @@
         <v>45335.76891203703</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48446,7 +48446,7 @@
         <v>45092</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48503,7 +48503,7 @@
         <v>45099.74195601852</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48560,7 +48560,7 @@
         <v>44321</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48622,7 +48622,7 @@
         <v>45271</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48679,7 +48679,7 @@
         <v>44943.48144675926</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48736,7 +48736,7 @@
         <v>45201</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48798,7 +48798,7 @@
         <v>44985</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48855,7 +48855,7 @@
         <v>44959.36028935185</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48917,7 +48917,7 @@
         <v>45245.46393518519</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48974,7 +48974,7 @@
         <v>45107</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49031,7 +49031,7 @@
         <v>45764.40184027778</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49088,7 +49088,7 @@
         <v>45314</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49145,7 +49145,7 @@
         <v>45295.40646990741</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49207,7 +49207,7 @@
         <v>45617.91424768518</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49264,7 +49264,7 @@
         <v>45534.36645833333</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49321,7 +49321,7 @@
         <v>45617.45760416667</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49378,7 +49378,7 @@
         <v>45700.60138888889</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49435,7 +49435,7 @@
         <v>44564.8419212963</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49492,7 +49492,7 @@
         <v>45377.42784722222</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49549,7 +49549,7 @@
         <v>45219</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49606,7 +49606,7 @@
         <v>44261</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49663,7 +49663,7 @@
         <v>45363.45982638889</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49720,7 +49720,7 @@
         <v>45240</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49777,7 +49777,7 @@
         <v>44966.57471064815</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49839,7 +49839,7 @@
         <v>45194</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49896,7 +49896,7 @@
         <v>45194</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49953,7 +49953,7 @@
         <v>45112</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50010,7 +50010,7 @@
         <v>45107</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50067,7 +50067,7 @@
         <v>45015</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50124,7 +50124,7 @@
         <v>44904</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50181,7 +50181,7 @@
         <v>45049</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50238,7 +50238,7 @@
         <v>45338</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50300,7 +50300,7 @@
         <v>44893</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50362,7 +50362,7 @@
         <v>45716.7125</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50419,7 +50419,7 @@
         <v>44894</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50476,7 +50476,7 @@
         <v>45630.6993287037</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50533,7 +50533,7 @@
         <v>44735</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50590,7 +50590,7 @@
         <v>44893.50922453704</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50652,7 +50652,7 @@
         <v>44605.45792824074</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50709,7 +50709,7 @@
         <v>45197.61039351852</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50771,7 +50771,7 @@
         <v>45406.89703703704</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50828,7 +50828,7 @@
         <v>44985.35407407407</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50885,7 +50885,7 @@
         <v>45051.37461805555</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50942,7 +50942,7 @@
         <v>44484</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -50999,7 +50999,7 @@
         <v>45770.51686342592</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51056,7 +51056,7 @@
         <v>45558.51949074074</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51118,7 +51118,7 @@
         <v>45758</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51180,7 +51180,7 @@
         <v>45706.66618055556</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51242,7 +51242,7 @@
         <v>45671.44716435186</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51299,7 +51299,7 @@
         <v>45705</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51356,7 +51356,7 @@
         <v>45740.59871527777</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51413,7 +51413,7 @@
         <v>45693</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51470,7 +51470,7 @@
         <v>45009</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51527,7 +51527,7 @@
         <v>44272</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51584,7 +51584,7 @@
         <v>45127</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51641,7 +51641,7 @@
         <v>44677</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51698,7 +51698,7 @@
         <v>45706.69090277778</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51760,7 +51760,7 @@
         <v>45756</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51817,7 +51817,7 @@
         <v>45324.64579861111</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51879,7 +51879,7 @@
         <v>45324.64745370371</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51941,7 +51941,7 @@
         <v>45671.44894675926</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -51998,7 +51998,7 @@
         <v>45414</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52055,7 +52055,7 @@
         <v>45761.49107638889</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52112,7 +52112,7 @@
         <v>44741.69432870371</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52169,7 +52169,7 @@
         <v>45223.65527777778</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52226,7 +52226,7 @@
         <v>45547.43793981482</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52288,7 +52288,7 @@
         <v>45541.37402777778</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52345,7 +52345,7 @@
         <v>45600.47958333333</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52402,7 +52402,7 @@
         <v>45435</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52464,7 +52464,7 @@
         <v>44967.6228125</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52521,7 +52521,7 @@
         <v>44734</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52583,7 +52583,7 @@
         <v>45617.48947916667</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52640,7 +52640,7 @@
         <v>45747.30204861111</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52697,7 +52697,7 @@
         <v>45533.46368055556</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52754,7 +52754,7 @@
         <v>45706.66388888889</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52816,7 +52816,7 @@
         <v>44249.66673611111</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52873,7 +52873,7 @@
         <v>44249</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52930,7 +52930,7 @@
         <v>45635.28104166667</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -52987,7 +52987,7 @@
         <v>45541</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53044,7 +53044,7 @@
         <v>45201</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53101,7 +53101,7 @@
         <v>45201.59743055556</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53158,7 +53158,7 @@
         <v>45341</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53215,7 +53215,7 @@
         <v>44950</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53272,7 +53272,7 @@
         <v>45099</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53329,7 +53329,7 @@
         <v>45681.57949074074</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53386,7 +53386,7 @@
         <v>45715.65605324074</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53443,7 +53443,7 @@
         <v>44627.41212962963</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53500,7 +53500,7 @@
         <v>45056</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53557,7 +53557,7 @@
         <v>45764.53915509259</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53614,7 +53614,7 @@
         <v>45748</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53676,7 +53676,7 @@
         <v>45355.56604166667</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53733,7 +53733,7 @@
         <v>44966.52741898148</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53795,7 +53795,7 @@
         <v>44588.50104166667</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53852,7 +53852,7 @@
         <v>44488</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53909,7 +53909,7 @@
         <v>44361</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53966,7 +53966,7 @@
         <v>45197</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54023,7 +54023,7 @@
         <v>45547.84315972222</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54085,7 +54085,7 @@
         <v>45691.5603125</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54142,7 +54142,7 @@
         <v>44897.3564699074</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54204,7 +54204,7 @@
         <v>45764.3996412037</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54261,7 +54261,7 @@
         <v>45764.42006944444</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54318,7 +54318,7 @@
         <v>45764.42517361111</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54375,7 +54375,7 @@
         <v>45545.65415509259</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54437,7 +54437,7 @@
         <v>44540.57753472222</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54494,7 +54494,7 @@
         <v>45198.60034722222</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54551,7 +54551,7 @@
         <v>45056.6438425926</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54608,7 +54608,7 @@
         <v>45406.89568287037</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54665,7 +54665,7 @@
         <v>45406.89640046296</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54722,7 +54722,7 @@
         <v>45747.45177083334</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54779,7 +54779,7 @@
         <v>45440.3712037037</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54836,7 +54836,7 @@
         <v>45216.47443287037</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54893,7 +54893,7 @@
         <v>45667.63950231481</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54950,7 +54950,7 @@
         <v>45777.60824074074</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55007,7 +55007,7 @@
         <v>45519.48550925926</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55064,7 +55064,7 @@
         <v>45785.65899305556</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55121,7 +55121,7 @@
         <v>45586.62837962963</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55178,7 +55178,7 @@
         <v>45789.54226851852</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55235,7 +55235,7 @@
         <v>45790.81799768518</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55292,7 +55292,7 @@
         <v>45541.38644675926</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55349,7 +55349,7 @@
         <v>45551.36004629629</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55406,7 +55406,7 @@
         <v>45350.56959490741</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55463,7 +55463,7 @@
         <v>45646.5796412037</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55520,7 +55520,7 @@
         <v>45790.82361111111</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55577,7 +55577,7 @@
         <v>45791.85732638889</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55634,7 +55634,7 @@
         <v>45793</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55691,7 +55691,7 @@
         <v>45570.58934027778</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55748,7 +55748,7 @@
         <v>45797.67148148148</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>

--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>45856.56684027778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45856.57200231482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>46013.37362268518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45936.82814814815</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45609</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>45348</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>45275</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         <v>46055</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45698.48634259259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45930.60978009259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>45939.60743055555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44512.62668981482</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45846.47335648148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>45788.88578703703</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45930.6172337963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44992</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>46003.66630787037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>46055</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44530</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44602</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44974</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>45604.53402777778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45539</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>45373.44148148148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>45898.45456018519</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>45947</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>45302</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>45982.56368055556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44991</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45358.52763888889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>45790.83706018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>45679.98452546296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44278</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44536</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44347.63069444444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>44469</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45580.46207175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>45295.3942824074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>44404.71972222222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44840</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>45841.4303125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>45819.60131944445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>45846</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>45616</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>45856.55965277777</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45924.51141203703</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>44943</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>45846</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>45876.69954861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>45538.45523148148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>45205</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>45302</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>46049.58559027778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>46055.33665509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>44879</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>45758</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45343</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>45569.41550925926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>45783</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45740.58743055556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>45726.52925925926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>45587</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>44260</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>44306</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>44308</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>44328.35063657408</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>44404.84280092592</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>44404.84659722223</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>44487</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>44749.55936342593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>44749.55703703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>44278.3859375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>44575.80925925926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>44273.62572916667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>44662</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>44308</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>44308</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44349</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44792.53711805555</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44411</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44809</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>44442</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>44487.49392361111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>44487</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>44749.32716435185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44420.68987268519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44404.84138888889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>44266</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>44881.81052083334</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>44665.60081018518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44869.49265046296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44734</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>44792</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>44259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>44365</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44538</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44263</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>44487</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>44487</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>44272</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44875.59231481481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>44852.74376157407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44292</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44498.56373842592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44286.34827546297</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44881.79847222222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44273</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44673</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44298.46462962963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44298.46582175926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44278.38752314815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>44279.37552083333</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>44754.47359953704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44855.3080787037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44347.61920138889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44476</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44373.75251157407</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44347.6287962963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44466.4425</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44440.71997685185</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>44377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>44840</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>44280</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>44613</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>44537</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>44456.46952546296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>44356</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44360</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>44575</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44298.44060185185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44711</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44659.57226851852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>44659</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44454.4800925926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>44578</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>44474.25150462963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>44579.41064814815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>44557.71989583333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>44373</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>44616.39256944445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>44464.40523148148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44294</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>44575</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>44428.58511574074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>44279.61517361111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44252</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44326</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44575.8194212963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44819</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44819.28449074074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44292</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>44523.65311342593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>44846.66688657407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>44428.596875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>44605.44909722222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44344</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         <v>44628</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>44711</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
         <v>44711</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>44841.31997685185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>44467.68283564815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12111,7 +12111,7 @@
         <v>44792.53936342592</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12168,7 +12168,7 @@
         <v>44259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44412</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>44830.90146990741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12339,7 +12339,7 @@
         <v>44787.80010416666</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>44825.40940972222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44585.30171296297</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>44579</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44711</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44428.34821759259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44272</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44308</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44428</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44464.42415509259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>44488</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44596</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44498.57181712963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44532.30398148148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44729</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44272</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44805</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>44811</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45735.81920138889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45252.58925925926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>45435.51875</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45272.42149305555</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44750</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>44979</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13851,7 +13851,7 @@
         <v>45477.38181712963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>44711</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>44853</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>45617.4922337963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>45114.55280092593</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>45764.30391203704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>45469.43982638889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>45012</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>45747.73295138889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>45404.58408564814</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>45697.26537037037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>45169</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>45048</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>45605.84435185185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>45152</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>45111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>44628</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>44589.73825231481</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>45145.47684027778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>45642.60125</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>45177</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>45307.72520833334</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>45726.42344907407</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>45012.47533564815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>45092.42630787037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44998</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>45405</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>45405</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>45621.52488425926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>45621.5278125</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>45436.68626157408</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>45295.4037962963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>45621</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>45392.58569444445</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44943.44811342593</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>45456.66137731481</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44252</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>45757.29700231482</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44938.53719907408</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44943</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44273</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>45253.73424768518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>45331</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>45184</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>45116.44680555556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44949</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>45545.53883101852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44904.59393518518</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44897</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44904.61212962963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>44904.49826388889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44861.6108912037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>45272</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44662</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>45406</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>45587</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>45205</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44423.87825231482</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>45183</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>45769.60498842593</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>45539.34539351852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>45645.57626157408</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>45373.60802083334</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>45455.4374537037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>44592.28611111111</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>45547.83950231481</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>45455.42981481482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44882</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>45182.71081018518</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>45461.65380787037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>44622</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44893</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>45624.41041666667</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>45037.67510416666</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>45600.48127314815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>45600.48347222222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>45701.37818287037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>45726.44835648148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>45215.71418981482</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>45819.53688657407</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>45819.53980324074</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>45819.5429050926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>45468.44574074074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>45371.60959490741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>45597.53744212963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>45682.47550925926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977.26300925926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>45446.56622685185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>45701.31962962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45617.92190972222</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44585</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45152</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45826</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45892.46936342592</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45892.38811342593</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45892.42259259259</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45892.43763888889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45351.65180555556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>45895.29351851852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44846.68375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>45833.63770833334</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>45775.32407407407</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45898.46327546296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>45502.32021990741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44904</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>45189</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>45902.67267361111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>45834.48820601852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>44507.82581018518</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>45358</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20352,7 +20352,7 @@
         <v>45358.61696759259</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>44449</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>45777.50512731481</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>45905.29668981482</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>45905.2990162037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45434.58377314815</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>45905.30106481481</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45294</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>45905.30556712963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45079</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>45908.90319444444</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>45908.92039351852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>45841.71503472222</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>45720.70986111111</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>45908.91429398148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>45908.92369212963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>45035</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>45841.4390625</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44950</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45240</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>45693.67859953704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>44626</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>45756</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>45246.50074074074</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>45058</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>45679.36950231482</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>45842.49056712963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>45547.42313657407</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>45797.56770833334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>45845.60700231481</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>45842.49457175926</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>45842.5059375</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>45587.47273148148</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>45119.54038194445</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>45846.73861111111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>45915.44439814815</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>45566</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22476,7 +22476,7 @@
         <v>45566</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>45915.46344907407</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>45603.60537037037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>45846.48190972222</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>45846</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>45846</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>45846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>45502.33179398148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>45917.38972222222</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>44837</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>45681.57619212963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>45902</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>45751</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>45919.2841087963</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>45210.34773148148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44614.56209490741</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>45764.53740740741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>45021</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>44963.66563657407</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44935.37284722222</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>44867</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>45917.83934027778</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>45630.3944675926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>45701</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>45180</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>45860.54674768518</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44904</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44575.80709490741</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>45788.32225694445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>45497</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>45861.68065972222</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>45861.46241898148</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>45922</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>45862.63645833333</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>45925.51032407407</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>45735.82282407407</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>45867.66349537037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>45924</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24667,7 +24667,7 @@
         <v>45923</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45260.85619212963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>45008</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45105.34402777778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>45929.48050925926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>45929.54777777778</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45474.70864583334</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45929.49478009259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>45926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>45788.3231712963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>45870.62930555556</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>45929.57009259259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45124.59594907407</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45759.5549537037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>45051</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45870.62511574074</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44487</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45875.57328703703</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45734.3584837963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>45875.60922453704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>45408.67427083333</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>45932.6049537037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25966,7 +25966,7 @@
         <v>45316</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>44631</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45552.48335648148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45876.6799537037</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>45880.43709490741</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>45880.46642361111</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>45880.49957175926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>45897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>45877.87582175926</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>45934.46428240741</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>45338.69246527777</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>44483.58045138889</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45169</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45883.58956018519</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45883.59239583334</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45883.60604166667</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45679.99299768519</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45883.60416666666</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>45937.31070601852</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45769.60440972223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45645.88440972222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45519.49606481481</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44454.35472222222</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>45681.48793981481</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44412.7071875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44923.55936342593</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45730.65831018519</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45764.31284722222</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45943.55663194445</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45300</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45887.62953703704</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45887.68474537037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45887.62158564815</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>45945.64072916667</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>45799.51578703704</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>45681.53460648148</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44659</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>45946.64105324074</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>45833.65434027778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>45946.46989583333</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>45887</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>45884</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>45455.40401620371</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>45947</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>45947</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44889</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>45946.58961805556</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>45946.6571412037</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>45644.62243055556</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44853</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>45401.34349537037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44988</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>45471.4034837963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>45198.59607638889</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>45764.30016203703</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>44414</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>45364.40862268519</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>45567</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45188.3012037037</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>45356.65395833334</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45952.36065972222</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45181</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44882</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45952.34659722223</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45957.68560185185</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44965</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45954.36755787037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45708.52121527777</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45749.67842592593</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45957.6397337963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44648</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45958</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45958.47931712963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45958.47756944445</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45958.47553240741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45958</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45958</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45959.335</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45447.55340277778</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45586</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45194</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45763.49306712963</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45643.47644675926</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44943.4652199074</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44943.46980324074</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45587.49814814814</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45915</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45642.8053125</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>45642.92393518519</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>45734.59972222222</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>45965.30054398148</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>45966.61328703703</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>45043.43777777778</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44411</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>45966.55049768519</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>45966.59260416667</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>45966.60797453704</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>45392.63664351852</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>45966.38317129629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>45643</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>45271</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>45968.55791666666</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>45972.45856481481</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>45973.63210648148</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>45215.72212962963</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>44803.44065972222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45974.57275462963</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>45673.71842592592</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>45974.59898148148</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44957.36059027778</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>45974</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>45974.64612268518</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32390,7 +32390,7 @@
         <v>45974.6371875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32452,7 +32452,7 @@
         <v>45974.56042824074</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>45975.28063657408</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         <v>45460.42804398148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32628,7 +32628,7 @@
         <v>45974.55534722222</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>45974.59596064815</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>45974.64902777778</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45030</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>45979.42626157407</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>45978.4020949074</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>45979</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>44977.26482638889</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45978.7081712963</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45034</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>44468</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45750.40476851852</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45349</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45982.38106481481</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45182</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45763.49402777778</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45758</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45646.67994212963</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45184</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45169</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45169.38410879629</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>44704.65815972222</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45401</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33964,7 +33964,7 @@
         <v>45414</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>45989.28233796296</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45758</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34140,7 +34140,7 @@
         <v>45747.45038194444</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34197,7 +34197,7 @@
         <v>45547.43438657407</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34259,7 +34259,7 @@
         <v>45988</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34316,7 +34316,7 @@
         <v>45772.45813657407</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34373,7 +34373,7 @@
         <v>45198.41381944445</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34430,7 +34430,7 @@
         <v>45198.41887731481</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34487,7 +34487,7 @@
         <v>46035.78607638889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34544,7 +34544,7 @@
         <v>44557</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34601,7 +34601,7 @@
         <v>44886.3340625</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
         <v>44658</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34715,7 +34715,7 @@
         <v>45303.63494212963</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34777,7 +34777,7 @@
         <v>45580.46572916667</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34834,7 +34834,7 @@
         <v>44550.30402777778</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34891,7 +34891,7 @@
         <v>45455.42533564815</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45130</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45477.33712962963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45547.83519675926</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35129,7 +35129,7 @@
         <v>45112.3174074074</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         <v>45112</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35243,7 +35243,7 @@
         <v>45174</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35300,7 +35300,7 @@
         <v>45557.35435185185</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35357,7 +35357,7 @@
         <v>45268</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35414,7 +35414,7 @@
         <v>45994.65827546296</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35471,7 +35471,7 @@
         <v>44614</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35528,7 +35528,7 @@
         <v>45462.38087962963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35585,7 +35585,7 @@
         <v>44861.62300925926</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35642,7 +35642,7 @@
         <v>46035.45091435185</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35699,7 +35699,7 @@
         <v>45995.88019675926</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35756,7 +35756,7 @@
         <v>45777</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35813,7 +35813,7 @@
         <v>46035.80196759259</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35870,7 +35870,7 @@
         <v>45324.64302083333</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35932,7 +35932,7 @@
         <v>45270.42966435185</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35989,7 +35989,7 @@
         <v>45588</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36046,7 +36046,7 @@
         <v>46041.56586805556</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36103,7 +36103,7 @@
         <v>46041.56237268518</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36160,7 +36160,7 @@
         <v>45179.9259375</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36217,7 +36217,7 @@
         <v>46038.53177083333</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36279,7 +36279,7 @@
         <v>44507.43497685185</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36336,7 +36336,7 @@
         <v>46043.45107638889</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36393,7 +36393,7 @@
         <v>46043.44930555556</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36450,7 +36450,7 @@
         <v>45755.70262731481</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36507,7 +36507,7 @@
         <v>45618</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36564,7 +36564,7 @@
         <v>45275</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         <v>46041</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>46000.64335648148</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>44936</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>45538</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>45630.70101851852</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36911,7 +36911,7 @@
         <v>46002.61814814815</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36968,7 +36968,7 @@
         <v>45302</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>45300</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>45412</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37144,7 +37144,7 @@
         <v>46044.64726851852</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37201,7 +37201,7 @@
         <v>46044.63626157407</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37258,7 +37258,7 @@
         <v>45764.4140162037</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>46048.32943287037</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>46048.32472222222</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37429,7 +37429,7 @@
         <v>46048.32628472222</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37486,7 +37486,7 @@
         <v>45182.36129629629</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37543,7 +37543,7 @@
         <v>45523.5090625</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>46048</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>45267.62943287037</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>45149</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>44943.44532407408</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37833,7 +37833,7 @@
         <v>46043</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37890,7 +37890,7 @@
         <v>46048.31344907408</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37947,7 +37947,7 @@
         <v>46048</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38004,7 +38004,7 @@
         <v>45615.89965277778</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38061,7 +38061,7 @@
         <v>45615.90662037037</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38118,7 +38118,7 @@
         <v>45523.58461805555</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38180,7 +38180,7 @@
         <v>46048.31101851852</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38237,7 +38237,7 @@
         <v>46048</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>46048.31534722223</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>46049.57688657408</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>46007.56581018519</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38470,7 +38470,7 @@
         <v>46049.58122685185</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38527,7 +38527,7 @@
         <v>45706.67424768519</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>46009.66237268518</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38651,7 +38651,7 @@
         <v>44449</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38708,7 +38708,7 @@
         <v>46050.40528935185</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38765,7 +38765,7 @@
         <v>45281.57759259259</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         <v>44944.40825231482</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38884,7 +38884,7 @@
         <v>44614.68596064814</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38941,7 +38941,7 @@
         <v>44729</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38998,7 +38998,7 @@
         <v>45751.58130787037</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39055,7 +39055,7 @@
         <v>46008.87585648148</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39117,7 +39117,7 @@
         <v>44648.61840277778</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39174,7 +39174,7 @@
         <v>45470.6672337963</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39231,7 +39231,7 @@
         <v>45177.5462962963</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39288,7 +39288,7 @@
         <v>44295.31922453704</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39345,7 +39345,7 @@
         <v>44963</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39402,7 +39402,7 @@
         <v>44938</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39464,7 +39464,7 @@
         <v>46013.35905092592</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39521,7 +39521,7 @@
         <v>46013.37043981482</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39578,7 +39578,7 @@
         <v>46055.33557870371</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39635,7 +39635,7 @@
         <v>45588</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39692,7 +39692,7 @@
         <v>46055.69702546296</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39749,7 +39749,7 @@
         <v>46055.69945601852</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39806,7 +39806,7 @@
         <v>46055.70261574074</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39863,7 +39863,7 @@
         <v>45958</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39920,7 +39920,7 @@
         <v>46013.60686342593</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>46013.62930555556</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40034,7 +40034,7 @@
         <v>46013.64788194445</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40091,7 +40091,7 @@
         <v>44655.48328703704</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40148,7 +40148,7 @@
         <v>46010.6608449074</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>45687</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40262,7 +40262,7 @@
         <v>46013.58880787037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40319,7 +40319,7 @@
         <v>46013.59091435185</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40376,7 +40376,7 @@
         <v>45769.43446759259</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40433,7 +40433,7 @@
         <v>45947</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40490,7 +40490,7 @@
         <v>46009.9044212963</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40552,7 +40552,7 @@
         <v>46013.36280092593</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40609,7 +40609,7 @@
         <v>46009.9071875</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40671,7 +40671,7 @@
         <v>46009.89641203704</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40733,7 +40733,7 @@
         <v>46010.65364583334</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40790,7 +40790,7 @@
         <v>46013.35461805556</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40847,7 +40847,7 @@
         <v>46055.30774305556</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40904,7 +40904,7 @@
         <v>46055.30878472222</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40961,7 +40961,7 @@
         <v>44368.64017361111</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41018,7 +41018,7 @@
         <v>46013.40760416666</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41075,7 +41075,7 @@
         <v>46013.62732638889</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41132,7 +41132,7 @@
         <v>46013.66438657408</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41189,7 +41189,7 @@
         <v>46009.86190972223</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41251,7 +41251,7 @@
         <v>46013.66993055555</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41308,7 +41308,7 @@
         <v>44839</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41370,7 +41370,7 @@
         <v>45092.39466435185</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41427,7 +41427,7 @@
         <v>44893</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41484,7 +41484,7 @@
         <v>45363.91521990741</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41541,7 +41541,7 @@
         <v>45314</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41598,7 +41598,7 @@
         <v>44484.49586805556</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41655,7 +41655,7 @@
         <v>46056</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41712,7 +41712,7 @@
         <v>46044.66613425926</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41769,7 +41769,7 @@
         <v>46056.44519675926</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         <v>45226.3731712963</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41883,7 +41883,7 @@
         <v>46059.68881944445</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41940,7 +41940,7 @@
         <v>46059.69060185185</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41997,7 +41997,7 @@
         <v>44589.74348379629</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42054,7 +42054,7 @@
         <v>44578.52657407407</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42111,7 +42111,7 @@
         <v>46059.45215277778</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42168,7 +42168,7 @@
         <v>46059.54601851852</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42225,7 +42225,7 @@
         <v>46059.57068287037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42282,7 +42282,7 @@
         <v>46059.58837962963</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>45587</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42396,7 +42396,7 @@
         <v>44804</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42453,7 +42453,7 @@
         <v>46059.55166666667</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42510,7 +42510,7 @@
         <v>46059.59077546297</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42567,7 +42567,7 @@
         <v>45043.67869212963</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42624,7 +42624,7 @@
         <v>46062</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42681,7 +42681,7 @@
         <v>46063</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42738,7 +42738,7 @@
         <v>45113.31806712963</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42795,7 +42795,7 @@
         <v>46062.63037037037</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42852,7 +42852,7 @@
         <v>45751.52445601852</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42914,7 +42914,7 @@
         <v>46062.60907407408</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42976,7 +42976,7 @@
         <v>46062.62796296296</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43033,7 +43033,7 @@
         <v>46063.65377314815</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>46062.63559027778</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         <v>45701.38606481482</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43204,7 +43204,7 @@
         <v>45558.63807870371</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         <v>44992.67101851852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43343,7 +43343,7 @@
         <v>45637.51090277778</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43400,7 +43400,7 @@
         <v>45644.62803240741</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43457,7 +43457,7 @@
         <v>44433</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>44608</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43571,7 +43571,7 @@
         <v>44734</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43633,7 +43633,7 @@
         <v>44734</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43695,7 +43695,7 @@
         <v>44904</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43752,7 +43752,7 @@
         <v>46069</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43809,7 +43809,7 @@
         <v>45197.38018518518</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43866,7 +43866,7 @@
         <v>45321</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43923,7 +43923,7 @@
         <v>45043</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43980,7 +43980,7 @@
         <v>46059</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         <v>44308.520625</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44094,7 +44094,7 @@
         <v>46026.95020833334</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44151,7 +44151,7 @@
         <v>46069</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44208,7 +44208,7 @@
         <v>46069</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44265,7 +44265,7 @@
         <v>46026.95724537037</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44322,7 +44322,7 @@
         <v>45372.34530092592</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44379,7 +44379,7 @@
         <v>46059.45422453704</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44436,7 +44436,7 @@
         <v>45545.59315972222</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44498,7 +44498,7 @@
         <v>46070.89668981481</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44555,7 +44555,7 @@
         <v>46070.90432870371</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44612,7 +44612,7 @@
         <v>44711</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44669,7 +44669,7 @@
         <v>45477.48771990741</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44726,7 +44726,7 @@
         <v>45477.48915509259</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44783,7 +44783,7 @@
         <v>46029</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44840,7 +44840,7 @@
         <v>45299</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44897,7 +44897,7 @@
         <v>44998.8734837963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44954,7 +44954,7 @@
         <v>45175.44625</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45011,7 +45011,7 @@
         <v>45118</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45068,7 +45068,7 @@
         <v>45992</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45125,7 +45125,7 @@
         <v>46070.88319444445</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45182,7 +45182,7 @@
         <v>44591</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45239,7 +45239,7 @@
         <v>46031.42040509259</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45296,7 +45296,7 @@
         <v>46031.42483796296</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45353,7 +45353,7 @@
         <v>46030.32302083333</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45410,7 +45410,7 @@
         <v>45708.50255787037</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45467,7 +45467,7 @@
         <v>45211</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45524,7 +45524,7 @@
         <v>46045</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45581,7 +45581,7 @@
         <v>45112</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45638,7 +45638,7 @@
         <v>45375</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45695,7 +45695,7 @@
         <v>46030.36607638889</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45757,7 +45757,7 @@
         <v>46031.42641203704</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45814,7 +45814,7 @@
         <v>45541.36828703704</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45871,7 +45871,7 @@
         <v>46073.45063657407</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45928,7 +45928,7 @@
         <v>44853</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45985,7 +45985,7 @@
         <v>45492.70833333334</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46042,7 +46042,7 @@
         <v>45562.38306712963</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         <v>45477.38554398148</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46156,7 +46156,7 @@
         <v>45477.38663194444</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46213,7 +46213,7 @@
         <v>45359.54100694445</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46270,7 +46270,7 @@
         <v>45243</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46332,7 +46332,7 @@
         <v>45184</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46389,7 +46389,7 @@
         <v>45757</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46446,7 +46446,7 @@
         <v>44355.60153935185</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46503,7 +46503,7 @@
         <v>44950</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46560,7 +46560,7 @@
         <v>44950</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46617,7 +46617,7 @@
         <v>44360.54226851852</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46674,7 +46674,7 @@
         <v>44930</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46731,7 +46731,7 @@
         <v>45531</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46788,7 +46788,7 @@
         <v>45757.30554398148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46845,7 +46845,7 @@
         <v>45462.37888888889</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46902,7 +46902,7 @@
         <v>45201</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46959,7 +46959,7 @@
         <v>45547.53320601852</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47016,7 +47016,7 @@
         <v>44325.76335648148</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47073,7 +47073,7 @@
         <v>45201.45827546297</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47130,7 +47130,7 @@
         <v>44719.43577546296</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47187,7 +47187,7 @@
         <v>45335.76891203703</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47249,7 +47249,7 @@
         <v>45092</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47306,7 +47306,7 @@
         <v>45099.74195601852</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47363,7 +47363,7 @@
         <v>44321</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47425,7 +47425,7 @@
         <v>45271</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47482,7 +47482,7 @@
         <v>44943.48144675926</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         <v>45201</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47601,7 +47601,7 @@
         <v>44985</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47658,7 +47658,7 @@
         <v>44959.36028935185</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47720,7 +47720,7 @@
         <v>45245.46393518519</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47777,7 +47777,7 @@
         <v>45107</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47834,7 +47834,7 @@
         <v>45764.40184027778</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47891,7 +47891,7 @@
         <v>45314</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45295.40646990741</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45617.91424768518</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45534.36645833333</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48124,7 +48124,7 @@
         <v>45617.45760416667</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48181,7 +48181,7 @@
         <v>45700.60138888889</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48238,7 +48238,7 @@
         <v>44564.8419212963</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48295,7 +48295,7 @@
         <v>45377.42784722222</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48352,7 +48352,7 @@
         <v>45219</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48409,7 +48409,7 @@
         <v>44261</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         <v>45363.45982638889</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48523,7 +48523,7 @@
         <v>45240</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48580,7 +48580,7 @@
         <v>44966.57471064815</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48642,7 +48642,7 @@
         <v>45194</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48699,7 +48699,7 @@
         <v>45194</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48756,7 +48756,7 @@
         <v>45112</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48813,7 +48813,7 @@
         <v>45107</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48870,7 +48870,7 @@
         <v>45015</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48927,7 +48927,7 @@
         <v>44904</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48984,7 +48984,7 @@
         <v>45049</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49041,7 +49041,7 @@
         <v>45338</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49103,7 +49103,7 @@
         <v>44893</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49165,7 +49165,7 @@
         <v>45716.7125</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49222,7 +49222,7 @@
         <v>44894</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49279,7 +49279,7 @@
         <v>45630.6993287037</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49336,7 +49336,7 @@
         <v>44735</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49393,7 +49393,7 @@
         <v>44893.50922453704</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49455,7 +49455,7 @@
         <v>44605.45792824074</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49512,7 +49512,7 @@
         <v>45197.61039351852</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49574,7 +49574,7 @@
         <v>45406.89703703704</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49631,7 +49631,7 @@
         <v>44985.35407407407</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>45051.37461805555</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>44484</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>45770.51686342592</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>45558.51949074074</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49921,7 +49921,7 @@
         <v>45758</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49983,7 +49983,7 @@
         <v>45706.66618055556</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50045,7 +50045,7 @@
         <v>45671.44716435186</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50102,7 +50102,7 @@
         <v>45705</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50159,7 +50159,7 @@
         <v>45740.59871527777</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50216,7 +50216,7 @@
         <v>45693</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50273,7 +50273,7 @@
         <v>45009</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50330,7 +50330,7 @@
         <v>44272</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50387,7 +50387,7 @@
         <v>45127</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50444,7 +50444,7 @@
         <v>44677</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50501,7 +50501,7 @@
         <v>45706.69090277778</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         <v>45756</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50620,7 +50620,7 @@
         <v>45324.64579861111</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50682,7 +50682,7 @@
         <v>45324.64745370371</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50744,7 +50744,7 @@
         <v>45671.44894675926</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50801,7 +50801,7 @@
         <v>45414</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50858,7 +50858,7 @@
         <v>45761.49107638889</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50915,7 +50915,7 @@
         <v>44741.69432870371</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50972,7 +50972,7 @@
         <v>45223.65527777778</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51029,7 +51029,7 @@
         <v>45547.43793981482</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51091,7 +51091,7 @@
         <v>45541.37402777778</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51148,7 +51148,7 @@
         <v>45600.47958333333</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51205,7 +51205,7 @@
         <v>45435</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51267,7 +51267,7 @@
         <v>44967.6228125</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51324,7 +51324,7 @@
         <v>44734</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51386,7 +51386,7 @@
         <v>45617.48947916667</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>45747.30204861111</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45533.46368055556</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>45706.66388888889</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51619,7 +51619,7 @@
         <v>44249.66673611111</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51676,7 +51676,7 @@
         <v>44249</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51733,7 +51733,7 @@
         <v>45635.28104166667</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51790,7 +51790,7 @@
         <v>45541</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51847,7 +51847,7 @@
         <v>45201</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51904,7 +51904,7 @@
         <v>45201.59743055556</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51961,7 +51961,7 @@
         <v>45341</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52018,7 +52018,7 @@
         <v>44950</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         <v>45099</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52132,7 +52132,7 @@
         <v>45681.57949074074</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52189,7 +52189,7 @@
         <v>45715.65605324074</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52246,7 +52246,7 @@
         <v>44627.41212962963</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52303,7 +52303,7 @@
         <v>45056</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52360,7 +52360,7 @@
         <v>45764.53915509259</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>45748</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52479,7 +52479,7 @@
         <v>45355.56604166667</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>44966.52741898148</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52598,7 +52598,7 @@
         <v>44588.50104166667</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52655,7 +52655,7 @@
         <v>44488</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52712,7 +52712,7 @@
         <v>44361</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52769,7 +52769,7 @@
         <v>45197</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52826,7 +52826,7 @@
         <v>45547.84315972222</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52888,7 +52888,7 @@
         <v>45691.5603125</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52945,7 +52945,7 @@
         <v>44897.3564699074</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53007,7 +53007,7 @@
         <v>45764.3996412037</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53064,7 +53064,7 @@
         <v>45764.42006944444</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53121,7 +53121,7 @@
         <v>45764.42517361111</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53178,7 +53178,7 @@
         <v>45545.65415509259</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53240,7 +53240,7 @@
         <v>44540.57753472222</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53297,7 +53297,7 @@
         <v>45198.60034722222</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53354,7 +53354,7 @@
         <v>45056.6438425926</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53411,7 +53411,7 @@
         <v>45406.89568287037</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53468,7 +53468,7 @@
         <v>45406.89640046296</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53525,7 +53525,7 @@
         <v>45747.45177083334</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53582,7 +53582,7 @@
         <v>45440.3712037037</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53639,7 +53639,7 @@
         <v>45216.47443287037</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53696,7 +53696,7 @@
         <v>45667.63950231481</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53753,7 +53753,7 @@
         <v>45777.60824074074</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53810,7 +53810,7 @@
         <v>45519.48550925926</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53867,7 +53867,7 @@
         <v>45785.65899305556</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53924,7 +53924,7 @@
         <v>45586.62837962963</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53981,7 +53981,7 @@
         <v>45789.54226851852</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54038,7 +54038,7 @@
         <v>45790.81799768518</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54095,7 +54095,7 @@
         <v>45541.38644675926</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54152,7 +54152,7 @@
         <v>45551.36004629629</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54209,7 +54209,7 @@
         <v>45350.56959490741</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54266,7 +54266,7 @@
         <v>45646.5796412037</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54323,7 +54323,7 @@
         <v>45790.82361111111</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54380,7 +54380,7 @@
         <v>45791.85732638889</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54437,7 +54437,7 @@
         <v>45793</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54494,7 +54494,7 @@
         <v>45570.58934027778</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54551,7 +54551,7 @@
         <v>45797.67148148148</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54608,7 +54608,7 @@
         <v>45741.65699074074</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54665,7 +54665,7 @@
         <v>45741.69303240741</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54722,7 +54722,7 @@
         <v>45755</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54779,7 +54779,7 @@
         <v>45727.35745370371</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54836,7 +54836,7 @@
         <v>45727.36243055556</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54893,7 +54893,7 @@
         <v>45740.91412037037</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54950,7 +54950,7 @@
         <v>45730.3782175926</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55012,7 +55012,7 @@
         <v>45736</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55069,7 +55069,7 @@
         <v>45799.5803125</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55126,7 +55126,7 @@
         <v>45743.59641203703</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55183,7 +55183,7 @@
         <v>45740.59474537037</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55240,7 +55240,7 @@
         <v>45727.36650462963</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55297,7 +55297,7 @@
         <v>45728</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55354,7 +55354,7 @@
         <v>45799.50469907407</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55411,7 +55411,7 @@
         <v>45735.65969907407</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55468,7 +55468,7 @@
         <v>45735</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55525,7 +55525,7 @@
         <v>45737.67416666666</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55582,7 +55582,7 @@
         <v>45734.35039351852</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55639,7 +55639,7 @@
         <v>45734.35122685185</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55696,7 +55696,7 @@
         <v>44992.66236111111</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55753,7 +55753,7 @@
         <v>45805</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55810,7 +55810,7 @@
         <v>45805.60481481482</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55867,7 +55867,7 @@
         <v>45805.58372685185</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55924,7 +55924,7 @@
         <v>45804</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55981,7 +55981,7 @@
         <v>45805.58325231481</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56038,7 +56038,7 @@
         <v>45806.2833912037</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56095,7 +56095,7 @@
         <v>45806.28703703704</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56152,7 +56152,7 @@
         <v>45806.26452546296</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56209,7 +56209,7 @@
         <v>45597.43615740741</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56266,7 +56266,7 @@
         <v>45811</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56323,7 +56323,7 @@
         <v>45810</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56380,7 +56380,7 @@
         <v>45643.89232638889</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56437,7 +56437,7 @@
         <v>45561.87885416667</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>

--- a/Översikt JÖNKÖPING.xlsx
+++ b/Översikt JÖNKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>45856.56684027778</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>45856.57200231482</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>46013.37362268518</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>45936.82814814815</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         <v>45609</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>45348</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         <v>45275</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         <v>46055</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45698.48634259259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>45930.60978009259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>45939.60743055555</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>44512.62668981482</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>45846.47335648148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>45788.88578703703</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45930.6172337963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         <v>44992</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         <v>46003.66630787037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>46055</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44530</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>44602</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>44974</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         <v>45604.53402777778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
         <v>45539</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>45373.44148148148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>45898.45456018519</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2860,7 +2860,7 @@
         <v>45947</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>45302</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>45982.56368055556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         <v>44991</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         <v>45358.52763888889</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3290,7 +3290,7 @@
         <v>45790.83706018519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>45679.98452546296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
         <v>44278</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44419</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         <v>44536</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44347.63069444444</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44467</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>44469</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>45580.46207175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>45295.3942824074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>44404.71972222222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>44840</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         <v>45841.4303125</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>45819.60131944445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>45846</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>45616</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>45856.55965277777</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45924.51141203703</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>44943</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>45846</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5023,7 +5023,7 @@
         <v>45876.69954861111</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5108,7 +5108,7 @@
         <v>45538.45523148148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         <v>45205</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>45302</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>46049.58559027778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>46055.33665509259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>44879</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>45758</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>45343</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>45569.41550925926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>45783</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>45740.58743055556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>45726.52925925926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>45587</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>44260</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6279,7 +6279,7 @@
         <v>44306</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
         <v>44308</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>44328.35063657408</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>44404.84280092592</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>44404.84659722223</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>44496</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>44487</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>44749.55936342593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>44749.55703703704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>44278.3859375</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>44575.80925925926</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>44273.62572916667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>44662</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>44308</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>44308</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44349</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44792.53711805555</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44411</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44809</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>44442</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>44487.49392361111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>44487</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>44749.32716435185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44420.68987268519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44404.84138888889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>44266</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>44881.81052083334</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>44665.60081018518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44869.49265046296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44734</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>44792</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>44259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>44365</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44538</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>44263</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8304,7 +8304,7 @@
         <v>44487</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8361,7 +8361,7 @@
         <v>44487</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8418,7 +8418,7 @@
         <v>44272</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>44875.59231481481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>44852.74376157407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44292</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>44498.56373842592</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>44286.34827546297</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>44881.79847222222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>44273</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>44673</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>44298.46462962963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8998,7 +8998,7 @@
         <v>44298.46582175926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>44278.38752314815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>44279.37552083333</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>44754.47359953704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>44855.3080787037</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>44347.61920138889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>44476</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44373.75251157407</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>44347.6287962963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>44511</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>44466.4425</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>44440.71997685185</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>44377</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>44840</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>44280</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>44613</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>44537</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>44456.46952546296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>44356</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44360</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>44476</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>44575</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44298.44060185185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44711</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44659.57226851852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>44659</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44454.4800925926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>44578</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>44474.25150462963</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>44579.41064814815</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>44557.71989583333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10790,7 +10790,7 @@
         <v>44373</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10847,7 +10847,7 @@
         <v>44616.39256944445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>44464.40523148148</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44294</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>44575</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>44428.58511574074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>44279.61517361111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>44252</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>44326</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>44575.8194212963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44819</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44819.28449074074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44292</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>44523.65311342593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>44846.66688657407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>44428.596875</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>44605.44909722222</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44344</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         <v>44628</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>44711</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
         <v>44711</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>44841.31997685185</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>44467.68283564815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12111,7 +12111,7 @@
         <v>44792.53936342592</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12168,7 +12168,7 @@
         <v>44259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>44412</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>44830.90146990741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12339,7 +12339,7 @@
         <v>44787.80010416666</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>44825.40940972222</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44614</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>44585.30171296297</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>44579</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44711</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         <v>44428.34821759259</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44272</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44308</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44428</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44464.42415509259</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>44488</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>44596</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>44498.57181712963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44532.30398148148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44729</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44272</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44805</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>44811</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45735.81920138889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45252.58925925926</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>45435.51875</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45272.42149305555</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44750</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>44979</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13851,7 +13851,7 @@
         <v>45477.38181712963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>44711</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>44853</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>45617.4922337963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>45114.55280092593</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>45764.30391203704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>45469.43982638889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>45012</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>45747.73295138889</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>45404.58408564814</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>45697.26537037037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>45169</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>45048</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>45605.84435185185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>45152</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>45111</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>44628</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>44589.73825231481</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>45145.47684027778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>45642.60125</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>45177</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>45307.72520833334</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>45726.42344907407</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>45012.47533564815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>45092.42630787037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15286,7 +15286,7 @@
         <v>44998</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15343,7 +15343,7 @@
         <v>45405</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>45405</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15457,7 +15457,7 @@
         <v>45621.52488425926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15514,7 +15514,7 @@
         <v>45621.5278125</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>45436.68626157408</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>45295.4037962963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15690,7 +15690,7 @@
         <v>45621</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>45392.58569444445</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44943.44811342593</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>45456.66137731481</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44252</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>45757.29700231482</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44938.53719907408</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>44943</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44273</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16208,7 +16208,7 @@
         <v>45253.73424768518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16265,7 +16265,7 @@
         <v>45331</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>45184</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>45116.44680555556</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>44949</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16493,7 +16493,7 @@
         <v>45545.53883101852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16550,7 +16550,7 @@
         <v>44904.59393518518</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44897</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44904.61212962963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16731,7 +16731,7 @@
         <v>44904.49826388889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>44861.6108912037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44861</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>45272</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44482</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44662</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>45406</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>45587</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17187,7 +17187,7 @@
         <v>45205</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17244,7 +17244,7 @@
         <v>44423.87825231482</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17301,7 +17301,7 @@
         <v>45183</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17358,7 +17358,7 @@
         <v>45769.60498842593</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17415,7 +17415,7 @@
         <v>45539.34539351852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>45645.57626157408</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17529,7 +17529,7 @@
         <v>45373.60802083334</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         <v>45455.4374537037</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>44592.28611111111</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>45547.83950231481</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>45455.42981481482</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17886,7 +17886,7 @@
         <v>44882</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17943,7 +17943,7 @@
         <v>45182.71081018518</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>45461.65380787037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18057,7 +18057,7 @@
         <v>44622</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18114,7 +18114,7 @@
         <v>44893</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18176,7 +18176,7 @@
         <v>45624.41041666667</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18233,7 +18233,7 @@
         <v>45037.67510416666</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18290,7 +18290,7 @@
         <v>45600.48127314815</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18347,7 +18347,7 @@
         <v>45600.48347222222</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18404,7 +18404,7 @@
         <v>45701.37818287037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18461,7 +18461,7 @@
         <v>45726.44835648148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>45215.71418981482</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18575,7 +18575,7 @@
         <v>45819.53688657407</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>45819.53980324074</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18689,7 +18689,7 @@
         <v>45819.5429050926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18746,7 +18746,7 @@
         <v>45468.44574074074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
         <v>45371.60959490741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18860,7 +18860,7 @@
         <v>45597.53744212963</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>45682.47550925926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18974,7 +18974,7 @@
         <v>44977.26300925926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>45446.56622685185</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>45701.31962962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45617.92190972222</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>44585</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>45152</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19316,7 +19316,7 @@
         <v>45826</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>45892.46936342592</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19430,7 +19430,7 @@
         <v>45892.38811342593</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19487,7 +19487,7 @@
         <v>45892.42259259259</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19544,7 +19544,7 @@
         <v>45892.43763888889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19601,7 +19601,7 @@
         <v>45351.65180555556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19663,7 +19663,7 @@
         <v>45895.29351851852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19720,7 +19720,7 @@
         <v>44846.68375</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>45833.63770833334</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19834,7 +19834,7 @@
         <v>45775.32407407407</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         <v>45898.46327546296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19948,7 +19948,7 @@
         <v>45502.32021990741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>44904</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>45189</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>45902.67267361111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>45834.48820601852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>44507.82581018518</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>45358</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20352,7 +20352,7 @@
         <v>45358.61696759259</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>44449</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>45777.50512731481</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>45905.29668981482</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>45905.2990162037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45434.58377314815</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>45905.30106481481</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45294</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>45905.30556712963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45079</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20927,7 +20927,7 @@
         <v>45908.90319444444</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20984,7 +20984,7 @@
         <v>45908.92039351852</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>45841.71503472222</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>45720.70986111111</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>45908.91429398148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>45908.92369212963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21269,7 +21269,7 @@
         <v>45035</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>45841.4390625</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44950</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45240</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>45693.67859953704</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21554,7 +21554,7 @@
         <v>44626</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>45756</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>45246.50074074074</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>45058</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>45679.36950231482</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>45842.49056712963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>45547.42313657407</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>45797.56770833334</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>45845.60700231481</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>45842.49457175926</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>45842.5059375</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22191,7 +22191,7 @@
         <v>45587.47273148148</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22248,7 +22248,7 @@
         <v>45119.54038194445</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22305,7 +22305,7 @@
         <v>45846.73861111111</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22362,7 +22362,7 @@
         <v>45915.44439814815</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         <v>45566</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22476,7 +22476,7 @@
         <v>45566</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22533,7 +22533,7 @@
         <v>45915.46344907407</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>45603.60537037037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>45846.48190972222</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>45846</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>45846</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
         <v>45846</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>45502.33179398148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>45917.38972222222</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>44837</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>45681.57619212963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>45902</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>45751</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>45919.2841087963</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>45210.34773148148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44614.56209490741</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>45764.53740740741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>45021</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23522,7 +23522,7 @@
         <v>44963.66563657407</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23579,7 +23579,7 @@
         <v>44935.37284722222</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23636,7 +23636,7 @@
         <v>44867</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23693,7 +23693,7 @@
         <v>45917.83934027778</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23750,7 +23750,7 @@
         <v>45630.3944675926</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
         <v>45701</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>45180</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23926,7 +23926,7 @@
         <v>45860.54674768518</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23983,7 +23983,7 @@
         <v>44904</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24040,7 +24040,7 @@
         <v>44575.80709490741</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24097,7 +24097,7 @@
         <v>45788.32225694445</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>45497</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24211,7 +24211,7 @@
         <v>45861.68065972222</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24268,7 +24268,7 @@
         <v>45861.46241898148</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>45922</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24382,7 +24382,7 @@
         <v>45862.63645833333</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24439,7 +24439,7 @@
         <v>45925.51032407407</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24496,7 +24496,7 @@
         <v>45735.82282407407</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24553,7 +24553,7 @@
         <v>45867.66349537037</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24610,7 +24610,7 @@
         <v>45924</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24667,7 +24667,7 @@
         <v>45923</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45260.85619212963</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24801,7 +24801,7 @@
         <v>45008</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24858,7 +24858,7 @@
         <v>45105.34402777778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24915,7 +24915,7 @@
         <v>45929.48050925926</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24972,7 +24972,7 @@
         <v>45929.54777777778</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         <v>45474.70864583334</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25086,7 +25086,7 @@
         <v>45929.49478009259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25143,7 +25143,7 @@
         <v>45926</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>45788.3231712963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>45870.62930555556</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>45929.57009259259</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45124.59594907407</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45759.5549537037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>45051</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45870.62511574074</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25609,7 +25609,7 @@
         <v>44487</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         <v>45875.57328703703</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>45734.3584837963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>45875.60922453704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>45408.67427083333</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>45932.6049537037</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25966,7 +25966,7 @@
         <v>45316</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>44631</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>45552.48335648148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>45876.6799537037</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>45880.43709490741</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>45880.46642361111</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>45880.49957175926</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>45897</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>45877.87582175926</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>45934.46428240741</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>45338.69246527777</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>44483.58045138889</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45169</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45883.58956018519</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45883.59239583334</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45883.60604166667</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45679.99299768519</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45883.60416666666</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>45937.31070601852</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45769.60440972223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45645.88440972222</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45519.49606481481</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>44454.35472222222</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>45681.48793981481</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>44412.7071875</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>44923.55936342593</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45730.65831018519</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45764.31284722222</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45943.55663194445</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45300</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27681,7 +27681,7 @@
         <v>45887.62953703704</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27738,7 +27738,7 @@
         <v>45887.68474537037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27795,7 +27795,7 @@
         <v>45887.62158564815</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27852,7 +27852,7 @@
         <v>45945.64072916667</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         <v>45799.51578703704</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27966,7 +27966,7 @@
         <v>45681.53460648148</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>44659</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>45946.64105324074</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>45833.65434027778</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>45946.46989583333</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>45887</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>45884</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>45455.40401620371</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28432,7 +28432,7 @@
         <v>45947</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>45947</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44889</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>45946.58961805556</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>45946.6571412037</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>45644.62243055556</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44853</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>45401.34349537037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44988</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>45471.4034837963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>45198.59607638889</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29059,7 +29059,7 @@
         <v>45764.30016203703</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         <v>44414</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29173,7 +29173,7 @@
         <v>45364.40862268519</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29230,7 +29230,7 @@
         <v>45567</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45188.3012037037</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>45356.65395833334</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45952.36065972222</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45181</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44882</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>45952.34659722223</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>45957.68560185185</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44965</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>45954.36755787037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>45708.52121527777</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>45749.67842592593</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>45957.6397337963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44648</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>45958</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>45958.47931712963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>45958.47756944445</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45958.47553240741</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45958</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30318,7 +30318,7 @@
         <v>45958</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30375,7 +30375,7 @@
         <v>45959.335</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45447.55340277778</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30489,7 +30489,7 @@
         <v>45586</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>45194</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>45763.49306712963</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>45643.47644675926</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44943.4652199074</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>44943.46980324074</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45587.49814814814</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45915</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>45642.8053125</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>45642.92393518519</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>45734.59972222222</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>45965.30054398148</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>45966.61328703703</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31235,7 +31235,7 @@
         <v>45043.43777777778</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31292,7 +31292,7 @@
         <v>44411</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31349,7 +31349,7 @@
         <v>45966.55049768519</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31406,7 +31406,7 @@
         <v>45966.59260416667</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31463,7 +31463,7 @@
         <v>45966.60797453704</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>45392.63664351852</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>45966.38317129629</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>45643</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>45271</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>45968.55791666666</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31805,7 +31805,7 @@
         <v>45972.45856481481</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31862,7 +31862,7 @@
         <v>45973.63210648148</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>45215.72212962963</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>44803.44065972222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32033,7 +32033,7 @@
         <v>45974.57275462963</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>45673.71842592592</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32152,7 +32152,7 @@
         <v>45974.59898148148</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44957.36059027778</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>45974</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>45974.64612268518</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32390,7 +32390,7 @@
         <v>45974.6371875</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32452,7 +32452,7 @@
         <v>45974.56042824074</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32514,7 +32514,7 @@
         <v>45975.28063657408</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32571,7 +32571,7 @@
         <v>45460.42804398148</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32628,7 +32628,7 @@
         <v>45974.55534722222</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32690,7 +32690,7 @@
         <v>45974.59596064815</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32752,7 +32752,7 @@
         <v>45974.64902777778</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>45030</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>45979.42626157407</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>45978.4020949074</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>45979</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>44977.26482638889</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>45978.7081712963</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>45034</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33213,7 +33213,7 @@
         <v>44468</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45750.40476851852</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33327,7 +33327,7 @@
         <v>45349</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33384,7 +33384,7 @@
         <v>45982.38106481481</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33441,7 +33441,7 @@
         <v>45182</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33498,7 +33498,7 @@
         <v>45763.49402777778</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45758</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45646.67994212963</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45184</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45169</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45169.38410879629</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>44704.65815972222</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45401</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -33964,7 +33964,7 @@
         <v>45414</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34021,7 +34021,7 @@
         <v>45989.28233796296</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34078,7 +34078,7 @@
         <v>45758</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34140,7 +34140,7 @@
         <v>45747.45038194444</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34197,7 +34197,7 @@
         <v>45547.43438657407</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34259,7 +34259,7 @@
         <v>45988</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34316,7 +34316,7 @@
         <v>45772.45813657407</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34373,7 +34373,7 @@
         <v>45198.41381944445</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34430,7 +34430,7 @@
         <v>45198.41887731481</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34487,7 +34487,7 @@
         <v>46035.78607638889</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34544,7 +34544,7 @@
         <v>44557</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34601,7 +34601,7 @@
         <v>44886.3340625</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
         <v>44658</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34715,7 +34715,7 @@
         <v>45303.63494212963</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34777,7 +34777,7 @@
         <v>45580.46572916667</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34834,7 +34834,7 @@
         <v>44550.30402777778</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34891,7 +34891,7 @@
         <v>45455.42533564815</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45130</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35010,7 +35010,7 @@
         <v>45477.33712962963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35067,7 +35067,7 @@
         <v>45547.83519675926</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35129,7 +35129,7 @@
         <v>45112.3174074074</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         <v>45112</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35243,7 +35243,7 @@
         <v>45174</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35300,7 +35300,7 @@
         <v>45557.35435185185</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35357,7 +35357,7 @@
         <v>45268</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35414,7 +35414,7 @@
         <v>45994.65827546296</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35471,7 +35471,7 @@
         <v>44614</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35528,7 +35528,7 @@
         <v>45462.38087962963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35585,7 +35585,7 @@
         <v>44861.62300925926</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35642,7 +35642,7 @@
         <v>46035.45091435185</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35699,7 +35699,7 @@
         <v>45995.88019675926</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35756,7 +35756,7 @@
         <v>45777</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35813,7 +35813,7 @@
         <v>46035.80196759259</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35870,7 +35870,7 @@
         <v>45324.64302083333</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35932,7 +35932,7 @@
         <v>45270.42966435185</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35989,7 +35989,7 @@
         <v>45588</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36046,7 +36046,7 @@
         <v>46041.56586805556</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36103,7 +36103,7 @@
         <v>46041.56237268518</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36160,7 +36160,7 @@
         <v>45179.9259375</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36217,7 +36217,7 @@
         <v>46038.53177083333</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36279,7 +36279,7 @@
         <v>44507.43497685185</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36336,7 +36336,7 @@
         <v>46043.45107638889</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36393,7 +36393,7 @@
         <v>46043.44930555556</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36450,7 +36450,7 @@
         <v>45755.70262731481</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36507,7 +36507,7 @@
         <v>45618</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36564,7 +36564,7 @@
         <v>45275</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         <v>46041</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>46000.64335648148</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>44936</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>45538</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>45630.70101851852</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36911,7 +36911,7 @@
         <v>46002.61814814815</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -36968,7 +36968,7 @@
         <v>45302</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>45300</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>45412</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37144,7 +37144,7 @@
         <v>46044.64726851852</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37201,7 +37201,7 @@
         <v>46044.63626157407</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37258,7 +37258,7 @@
         <v>45764.4140162037</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>46048.32943287037</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>46048.32472222222</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37429,7 +37429,7 @@
         <v>46048.32628472222</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37486,7 +37486,7 @@
         <v>45182.36129629629</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37543,7 +37543,7 @@
         <v>45523.5090625</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37605,7 +37605,7 @@
         <v>46048</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37662,7 +37662,7 @@
         <v>45267.62943287037</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37719,7 +37719,7 @@
         <v>45149</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37776,7 +37776,7 @@
         <v>44943.44532407408</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37833,7 +37833,7 @@
         <v>46043</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37890,7 +37890,7 @@
         <v>46048.31344907408</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -37947,7 +37947,7 @@
         <v>46048</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38004,7 +38004,7 @@
         <v>45615.89965277778</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38061,7 +38061,7 @@
         <v>45615.90662037037</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38118,7 +38118,7 @@
         <v>45523.58461805555</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38180,7 +38180,7 @@
         <v>46048.31101851852</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38237,7 +38237,7 @@
         <v>46048</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38299,7 +38299,7 @@
         <v>46048.31534722223</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38356,7 +38356,7 @@
         <v>46049.57688657408</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38413,7 +38413,7 @@
         <v>46007.56581018519</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -38470,7 +38470,7 @@
         <v>46049.58122685185</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -38527,7 +38527,7 @@
         <v>45706.67424768519</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -38589,7 +38589,7 @@
         <v>46009.66237268518</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -38651,7 +38651,7 @@
         <v>44449</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -38708,7 +38708,7 @@
         <v>46050.40528935185</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -38765,7 +38765,7 @@
         <v>45281.57759259259</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         <v>44944.40825231482</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -38884,7 +38884,7 @@
         <v>44614.68596064814</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -38941,7 +38941,7 @@
         <v>44729</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -38998,7 +38998,7 @@
         <v>45751.58130787037</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39055,7 +39055,7 @@
         <v>46008.87585648148</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39117,7 +39117,7 @@
         <v>44648.61840277778</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39174,7 +39174,7 @@
         <v>45470.6672337963</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39231,7 +39231,7 @@
         <v>45177.5462962963</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39288,7 +39288,7 @@
         <v>44295.31922453704</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39345,7 +39345,7 @@
         <v>44963</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39402,7 +39402,7 @@
         <v>44938</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39464,7 +39464,7 @@
         <v>46013.35905092592</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -39521,7 +39521,7 @@
         <v>46013.37043981482</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -39578,7 +39578,7 @@
         <v>46055.33557870371</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -39635,7 +39635,7 @@
         <v>45588</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -39692,7 +39692,7 @@
         <v>46055.69702546296</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -39749,7 +39749,7 @@
         <v>46055.69945601852</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -39806,7 +39806,7 @@
         <v>46055.70261574074</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -39863,7 +39863,7 @@
         <v>45958</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -39920,7 +39920,7 @@
         <v>46013.60686342593</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -39977,7 +39977,7 @@
         <v>46013.62930555556</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40034,7 +40034,7 @@
         <v>46013.64788194445</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40091,7 +40091,7 @@
         <v>44655.48328703704</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40148,7 +40148,7 @@
         <v>46010.6608449074</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40205,7 +40205,7 @@
         <v>45687</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40262,7 +40262,7 @@
         <v>46013.58880787037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40319,7 +40319,7 @@
         <v>46013.59091435185</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40376,7 +40376,7 @@
         <v>45769.43446759259</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40433,7 +40433,7 @@
         <v>45947</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -40490,7 +40490,7 @@
         <v>46009.9044212963</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -40552,7 +40552,7 @@
         <v>46013.36280092593</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -40609,7 +40609,7 @@
         <v>46009.9071875</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -40671,7 +40671,7 @@
         <v>46009.89641203704</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -40733,7 +40733,7 @@
         <v>46010.65364583334</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -40790,7 +40790,7 @@
         <v>46013.35461805556</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -40847,7 +40847,7 @@
         <v>46055.30774305556</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -40904,7 +40904,7 @@
         <v>46055.30878472222</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -40961,7 +40961,7 @@
         <v>44368.64017361111</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41018,7 +41018,7 @@
         <v>46013.40760416666</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41075,7 +41075,7 @@
         <v>46013.62732638889</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41132,7 +41132,7 @@
         <v>46013.66438657408</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41189,7 +41189,7 @@
         <v>46009.86190972223</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41251,7 +41251,7 @@
         <v>46013.66993055555</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41308,7 +41308,7 @@
         <v>44839</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41370,7 +41370,7 @@
         <v>45092.39466435185</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41427,7 +41427,7 @@
         <v>44893</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41484,7 +41484,7 @@
         <v>45363.91521990741</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -41541,7 +41541,7 @@
         <v>45314</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -41598,7 +41598,7 @@
         <v>44484.49586805556</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -41655,7 +41655,7 @@
         <v>46056</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -41712,7 +41712,7 @@
         <v>46044.66613425926</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -41769,7 +41769,7 @@
         <v>46056.44519675926</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         <v>45226.3731712963</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -41883,7 +41883,7 @@
         <v>46059.68881944445</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -41940,7 +41940,7 @@
         <v>46059.69060185185</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -41997,7 +41997,7 @@
         <v>44589.74348379629</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42054,7 +42054,7 @@
         <v>44578.52657407407</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42111,7 +42111,7 @@
         <v>46059.45215277778</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42168,7 +42168,7 @@
         <v>46059.54601851852</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42225,7 +42225,7 @@
         <v>46059.57068287037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42282,7 +42282,7 @@
         <v>46059.58837962963</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>45587</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42396,7 +42396,7 @@
         <v>44804</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42453,7 +42453,7 @@
         <v>46059.55166666667</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -42510,7 +42510,7 @@
         <v>46059.59077546297</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -42567,7 +42567,7 @@
         <v>45043.67869212963</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -42624,7 +42624,7 @@
         <v>46062</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -42681,7 +42681,7 @@
         <v>46063</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -42738,7 +42738,7 @@
         <v>45113.31806712963</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -42795,7 +42795,7 @@
         <v>46062.63037037037</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -42852,7 +42852,7 @@
         <v>45751.52445601852</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -42914,7 +42914,7 @@
         <v>46062.60907407408</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -42976,7 +42976,7 @@
         <v>46062.62796296296</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43033,7 +43033,7 @@
         <v>46063.65377314815</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43090,7 +43090,7 @@
         <v>46062.63559027778</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         <v>45701.38606481482</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43204,7 +43204,7 @@
         <v>45558.63807870371</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         <v>44992.67101851852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43343,7 +43343,7 @@
         <v>45637.51090277778</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43400,7 +43400,7 @@
         <v>45644.62803240741</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43457,7 +43457,7 @@
         <v>44433</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -43514,7 +43514,7 @@
         <v>44608</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -43571,7 +43571,7 @@
         <v>44734</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -43633,7 +43633,7 @@
         <v>44734</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -43695,7 +43695,7 @@
         <v>44904</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -43752,7 +43752,7 @@
         <v>46069</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -43809,7 +43809,7 @@
         <v>45197.38018518518</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -43866,7 +43866,7 @@
         <v>45321</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -43923,7 +43923,7 @@
         <v>45043</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -43980,7 +43980,7 @@
         <v>46059</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         <v>44308.520625</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44094,7 +44094,7 @@
         <v>46026.95020833334</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44151,7 +44151,7 @@
         <v>46069</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44208,7 +44208,7 @@
         <v>46069</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44265,7 +44265,7 @@
         <v>46026.95724537037</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44322,7 +44322,7 @@
         <v>45372.34530092592</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44379,7 +44379,7 @@
         <v>46059.45422453704</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44436,7 +44436,7 @@
         <v>45545.59315972222</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44498,7 +44498,7 @@
         <v>46070.89668981481</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -44555,7 +44555,7 @@
         <v>46070.90432870371</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -44612,7 +44612,7 @@
         <v>44711</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -44669,7 +44669,7 @@
         <v>45477.48771990741</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -44726,7 +44726,7 @@
         <v>45477.48915509259</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -44783,7 +44783,7 @@
         <v>46029</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -44840,7 +44840,7 @@
         <v>45299</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -44897,7 +44897,7 @@
         <v>44998.8734837963</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -44954,7 +44954,7 @@
         <v>45175.44625</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45011,7 +45011,7 @@
         <v>45118</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45068,7 +45068,7 @@
         <v>45992</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45125,7 +45125,7 @@
         <v>46070.88319444445</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45182,7 +45182,7 @@
         <v>44591</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45239,7 +45239,7 @@
         <v>46031.42040509259</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45296,7 +45296,7 @@
         <v>46031.42483796296</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45353,7 +45353,7 @@
         <v>46030.32302083333</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45410,7 +45410,7 @@
         <v>45708.50255787037</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45467,7 +45467,7 @@
         <v>45211</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -45524,7 +45524,7 @@
         <v>46045</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -45581,7 +45581,7 @@
         <v>45112</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -45638,7 +45638,7 @@
         <v>45375</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -45695,7 +45695,7 @@
         <v>46030.36607638889</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -45757,7 +45757,7 @@
         <v>46031.42641203704</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -45814,7 +45814,7 @@
         <v>45541.36828703704</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -45871,7 +45871,7 @@
         <v>46073.45063657407</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -45928,7 +45928,7 @@
         <v>44853</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -45985,7 +45985,7 @@
         <v>45492.70833333334</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46042,7 +46042,7 @@
         <v>45562.38306712963</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46099,7 +46099,7 @@
         <v>45477.38554398148</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46156,7 +46156,7 @@
         <v>45477.38663194444</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46213,7 +46213,7 @@
         <v>45359.54100694445</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46270,7 +46270,7 @@
         <v>45243</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46332,7 +46332,7 @@
         <v>45184</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46389,7 +46389,7 @@
         <v>45757</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46446,7 +46446,7 @@
         <v>44355.60153935185</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -46503,7 +46503,7 @@
         <v>44950</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -46560,7 +46560,7 @@
         <v>44950</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -46617,7 +46617,7 @@
         <v>44360.54226851852</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -46674,7 +46674,7 @@
         <v>44930</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -46731,7 +46731,7 @@
         <v>45531</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -46788,7 +46788,7 @@
         <v>45757.30554398148</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -46845,7 +46845,7 @@
         <v>45462.37888888889</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -46902,7 +46902,7 @@
         <v>45201</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -46959,7 +46959,7 @@
         <v>45547.53320601852</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47016,7 +47016,7 @@
         <v>44325.76335648148</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47073,7 +47073,7 @@
         <v>45201.45827546297</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47130,7 +47130,7 @@
         <v>44719.43577546296</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47187,7 +47187,7 @@
         <v>45335.76891203703</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47249,7 +47249,7 @@
         <v>45092</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47306,7 +47306,7 @@
         <v>45099.74195601852</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47363,7 +47363,7 @@
         <v>44321</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47425,7 +47425,7 @@
         <v>45271</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -47482,7 +47482,7 @@
         <v>44943.48144675926</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -47539,7 +47539,7 @@
         <v>45201</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -47601,7 +47601,7 @@
         <v>44985</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -47658,7 +47658,7 @@
         <v>44959.36028935185</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -47720,7 +47720,7 @@
         <v>45245.46393518519</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -47777,7 +47777,7 @@
         <v>45107</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -47834,7 +47834,7 @@
         <v>45764.40184027778</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -47891,7 +47891,7 @@
         <v>45314</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45295.40646990741</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45617.91424768518</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45534.36645833333</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48124,7 +48124,7 @@
         <v>45617.45760416667</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48181,7 +48181,7 @@
         <v>45700.60138888889</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48238,7 +48238,7 @@
         <v>44564.8419212963</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48295,7 +48295,7 @@
         <v>45377.42784722222</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48352,7 +48352,7 @@
         <v>45219</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48409,7 +48409,7 @@
         <v>44261</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48466,7 +48466,7 @@
         <v>45363.45982638889</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -48523,7 +48523,7 @@
         <v>45240</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -48580,7 +48580,7 @@
         <v>44966.57471064815</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -48642,7 +48642,7 @@
         <v>45194</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -48699,7 +48699,7 @@
         <v>45194</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -48756,7 +48756,7 @@
         <v>45112</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -48813,7 +48813,7 @@
         <v>45107</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -48870,7 +48870,7 @@
         <v>45015</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -48927,7 +48927,7 @@
         <v>44904</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -48984,7 +48984,7 @@
         <v>45049</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49041,7 +49041,7 @@
         <v>45338</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49103,7 +49103,7 @@
         <v>44893</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49165,7 +49165,7 @@
         <v>45716.7125</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49222,7 +49222,7 @@
         <v>44894</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49279,7 +49279,7 @@
         <v>45630.6993287037</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49336,7 +49336,7 @@
         <v>44735</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49393,7 +49393,7 @@
         <v>44893.50922453704</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49455,7 +49455,7 @@
         <v>44605.45792824074</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -49512,7 +49512,7 @@
         <v>45197.61039351852</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -49574,7 +49574,7 @@
         <v>45406.89703703704</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -49631,7 +49631,7 @@
         <v>44985.35407407407</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -49688,7 +49688,7 @@
         <v>45051.37461805555</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -49745,7 +49745,7 @@
         <v>44484</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -49802,7 +49802,7 @@
         <v>45770.51686342592</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -49859,7 +49859,7 @@
         <v>45558.51949074074</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -49921,7 +49921,7 @@
         <v>45758</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -49983,7 +49983,7 @@
         <v>45706.66618055556</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50045,7 +50045,7 @@
         <v>45671.44716435186</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50102,7 +50102,7 @@
         <v>45705</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50159,7 +50159,7 @@
         <v>45740.59871527777</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -50216,7 +50216,7 @@
         <v>45693</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -50273,7 +50273,7 @@
         <v>45009</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -50330,7 +50330,7 @@
         <v>44272</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -50387,7 +50387,7 @@
         <v>45127</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -50444,7 +50444,7 @@
         <v>44677</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -50501,7 +50501,7 @@
         <v>45706.69090277778</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -50563,7 +50563,7 @@
         <v>45756</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -50620,7 +50620,7 @@
         <v>45324.64579861111</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -50682,7 +50682,7 @@
         <v>45324.64745370371</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -50744,7 +50744,7 @@
         <v>45671.44894675926</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -50801,7 +50801,7 @@
         <v>45414</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -50858,7 +50858,7 @@
         <v>45761.49107638889</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -50915,7 +50915,7 @@
         <v>44741.69432870371</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -50972,7 +50972,7 @@
         <v>45223.65527777778</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51029,7 +51029,7 @@
         <v>45547.43793981482</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -51091,7 +51091,7 @@
         <v>45541.37402777778</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -51148,7 +51148,7 @@
         <v>45600.47958333333</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -51205,7 +51205,7 @@
         <v>45435</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -51267,7 +51267,7 @@
         <v>44967.6228125</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -51324,7 +51324,7 @@
         <v>44734</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -51386,7 +51386,7 @@
         <v>45617.48947916667</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -51443,7 +51443,7 @@
         <v>45747.30204861111</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -51500,7 +51500,7 @@
         <v>45533.46368055556</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -51557,7 +51557,7 @@
         <v>45706.66388888889</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -51619,7 +51619,7 @@
         <v>44249.66673611111</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -51676,7 +51676,7 @@
         <v>44249</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -51733,7 +51733,7 @@
         <v>45635.28104166667</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -51790,7 +51790,7 @@
         <v>45541</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -51847,7 +51847,7 @@
         <v>45201</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -51904,7 +51904,7 @@
         <v>45201.59743055556</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -51961,7 +51961,7 @@
         <v>45341</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52018,7 +52018,7 @@
         <v>44950</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52075,7 +52075,7 @@
         <v>45099</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -52132,7 +52132,7 @@
         <v>45681.57949074074</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -52189,7 +52189,7 @@
         <v>45715.65605324074</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -52246,7 +52246,7 @@
         <v>44627.41212962963</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -52303,7 +52303,7 @@
         <v>45056</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -52360,7 +52360,7 @@
         <v>45764.53915509259</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -52417,7 +52417,7 @@
         <v>45748</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -52479,7 +52479,7 @@
         <v>45355.56604166667</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -52536,7 +52536,7 @@
         <v>44966.52741898148</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -52598,7 +52598,7 @@
         <v>44588.50104166667</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -52655,7 +52655,7 @@
         <v>44488</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -52712,7 +52712,7 @@
         <v>44361</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -52769,7 +52769,7 @@
         <v>45197</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -52826,7 +52826,7 @@
         <v>45547.84315972222</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -52888,7 +52888,7 @@
         <v>45691.5603125</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -52945,7 +52945,7 @@
         <v>44897.3564699074</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53007,7 +53007,7 @@
         <v>45764.3996412037</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53064,7 +53064,7 @@
         <v>45764.42006944444</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -53121,7 +53121,7 @@
         <v>45764.42517361111</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -53178,7 +53178,7 @@
         <v>45545.65415509259</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -53240,7 +53240,7 @@
         <v>44540.57753472222</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -53297,7 +53297,7 @@
         <v>45198.60034722222</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -53354,7 +53354,7 @@
         <v>45056.6438425926</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -53411,7 +53411,7 @@
         <v>45406.89568287037</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -53468,7 +53468,7 @@
         <v>45406.89640046296</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -53525,7 +53525,7 @@
         <v>45747.45177083334</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -53582,7 +53582,7 @@
         <v>45440.3712037037</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -53639,7 +53639,7 @@
         <v>45216.47443287037</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -53696,7 +53696,7 @@
         <v>45667.63950231481</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -53753,7 +53753,7 @@
         <v>45777.60824074074</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -53810,7 +53810,7 @@
         <v>45519.48550925926</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -53867,7 +53867,7 @@
         <v>45785.65899305556</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -53924,7 +53924,7 @@
         <v>45586.62837962963</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -53981,7 +53981,7 @@
         <v>45789.54226851852</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54038,7 +54038,7 @@
         <v>45790.81799768518</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -54095,7 +54095,7 @@
         <v>45541.38644675926</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -54152,7 +54152,7 @@
         <v>45551.36004629629</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -54209,7 +54209,7 @@
         <v>45350.56959490741</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -54266,7 +54266,7 @@
         <v>45646.5796412037</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -54323,7 +54323,7 @@
         <v>45790.82361111111</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -54380,7 +54380,7 @@
         <v>45791.85732638889</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -54437,7 +54437,7 @@
         <v>45793</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -54494,7 +54494,7 @@
         <v>45570.58934027778</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -54551,7 +54551,7 @@
         <v>45797.67148148148</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -54608,7 +54608,7 @@
         <v>45741.65699074074</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -54665,7 +54665,7 @@
         <v>45741.69303240741</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -54722,7 +54722,7 @@
         <v>45755</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -54779,7 +54779,7 @@
         <v>45727.35745370371</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -54836,7 +54836,7 @@
         <v>45727.36243055556</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -54893,7 +54893,7 @@
         <v>45740.91412037037</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -54950,7 +54950,7 @@
         <v>45730.3782175926</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55012,7 +55012,7 @@
         <v>45736</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -55069,7 +55069,7 @@
         <v>45799.5803125</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -55126,7 +55126,7 @@
         <v>45743.59641203703</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -55183,7 +55183,7 @@
         <v>45740.59474537037</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -55240,7 +55240,7 @@
         <v>45727.36650462963</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -55297,7 +55297,7 @@
         <v>45728</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -55354,7 +55354,7 @@
         <v>45799.50469907407</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -55411,7 +55411,7 @@
         <v>45735.65969907407</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -55468,7 +55468,7 @@
         <v>45735</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -55525,7 +55525,7 @@
         <v>45737.67416666666</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -55582,7 +55582,7 @@
         <v>45734.35039351852</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -55639,7 +55639,7 @@
         <v>45734.35122685185</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -55696,7 +55696,7 @@
         <v>44992.66236111111</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -55753,7 +55753,7 @@
         <v>45805</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -55810,7 +55810,7 @@
         <v>45805.60481481482</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -55867,7 +55867,7 @@
         <v>45805.58372685185</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -55924,7 +55924,7 @@
         <v>45804</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -55981,7 +55981,7 @@
         <v>45805.58325231481</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -56038,7 +56038,7 @@
         <v>45806.2833912037</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -56095,7 +56095,7 @@
         <v>45806.28703703704</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -56152,7 +56152,7 @@
         <v>45806.26452546296</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -56209,7 +56209,7 @@
         <v>45597.43615740741</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -56266,7 +56266,7 @@
         <v>45811</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -56323,7 +56323,7 @@
         <v>45810</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -56380,7 +56380,7 @@
         <v>45643.89232638889</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -56437,7 +56437,7 @@
         <v>45561.87885416667</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
